--- a/TestProgram2(Assembly-Code).xlsx
+++ b/TestProgram2(Assembly-Code).xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QiTianYi\Desktop\Advanced Computer Architecture\CSCI6461ComputerArchitecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EED401B-1183-4901-955C-FCABB8AC1A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962A1A07-64BA-44E4-A118-857E866426AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5181C135-F803-4CA6-AFB1-3DD996B2224A}"/>
+    <workbookView xWindow="-5280" yWindow="5640" windowWidth="11430" windowHeight="7875" xr2:uid="{5181C135-F803-4CA6-AFB1-3DD996B2224A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="BinaryCode" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="617">
   <si>
     <t>Memory Location</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STR R1,IX1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R1 = BasicAdd(1000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,10 +240,6 @@
   </si>
   <si>
     <t>R1=MemoryPointer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM[MemoryPointer]=R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -314,15 +306,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LDA IX1,MEM[7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LDR R2, IX1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDR R1, MEM[29]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -962,6 +946,1356 @@
   </si>
   <si>
     <t>JMA IX1,0 (AFTER THE INSTR, THE SPACE USE AS SWAP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010000001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001100000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100000001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000110000001001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001000000001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100000000111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010010010000111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000101110000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111010000000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000110100001010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101100001000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010010001011101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011001101001111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010100011111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001000100011110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100100000111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010010001000111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100101000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010100011110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001100100000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100100011110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011010001000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000011110000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001110000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000011000011100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101100110000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010100011101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010010001011011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001001000011111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000101000000111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000011001000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111101000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001101000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000101000011100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111010000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010010001010110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010100011000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001000100010111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010100010111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100100010111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010000010101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011001101010110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011010001010111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010000011111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001000000010101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010001000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000011000011000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001001000010100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010101000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010010001010011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011001101000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010010001010010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011010001000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000110000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100000011101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011001101001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011010001001111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010100011010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010010001001101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011100001000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010100011001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001000000011101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001000100010100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001000100011101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100100011101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011010001000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100000010101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010100010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011001101010011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011010001011011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100100011001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010100010101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100100010101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000110100010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001100100001110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010010001010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100100011010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000110100000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001000100010101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010000010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010000000111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000111000001010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101010010000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000011000001111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000101000001111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000011000001110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001001000001111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001100100011110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001100100010010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010110001001010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010000001110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001000000001111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111100000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000010000001111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100000001111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010110001011000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000110000001010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010010001010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011100001011111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011100001010111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000011111010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010010001001100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000100011011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000011101110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000001110000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000011001110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000010101100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000010001100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000001100110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000001000111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000101000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000001111101000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000000</t>
+  </si>
+  <si>
+    <t>000000000001</t>
+  </si>
+  <si>
+    <t>000000000010</t>
+  </si>
+  <si>
+    <t>000000000011</t>
+  </si>
+  <si>
+    <t>000000000100</t>
+  </si>
+  <si>
+    <t>000000000101</t>
+  </si>
+  <si>
+    <t>000000000110</t>
+  </si>
+  <si>
+    <t>000000000111</t>
+  </si>
+  <si>
+    <t>000000001000</t>
+  </si>
+  <si>
+    <t>000000001001</t>
+  </si>
+  <si>
+    <t>000000001010</t>
+  </si>
+  <si>
+    <t>000000001011</t>
+  </si>
+  <si>
+    <t>000000001100</t>
+  </si>
+  <si>
+    <t>000000001101</t>
+  </si>
+  <si>
+    <t>000000001110</t>
+  </si>
+  <si>
+    <t>000000001111</t>
+  </si>
+  <si>
+    <t>000000010000</t>
+  </si>
+  <si>
+    <t>000000010001</t>
+  </si>
+  <si>
+    <t>000000010010</t>
+  </si>
+  <si>
+    <t>000000010011</t>
+  </si>
+  <si>
+    <t>000000010100</t>
+  </si>
+  <si>
+    <t>000000010101</t>
+  </si>
+  <si>
+    <t>000000010110</t>
+  </si>
+  <si>
+    <t>000000010111</t>
+  </si>
+  <si>
+    <t>000000011000</t>
+  </si>
+  <si>
+    <t>000000011001</t>
+  </si>
+  <si>
+    <t>000000011010</t>
+  </si>
+  <si>
+    <t>000000011011</t>
+  </si>
+  <si>
+    <t>000000011100</t>
+  </si>
+  <si>
+    <t>000000011101</t>
+  </si>
+  <si>
+    <t>000000011110</t>
+  </si>
+  <si>
+    <t>000000011111</t>
+  </si>
+  <si>
+    <t>000000100000</t>
+  </si>
+  <si>
+    <t>000000100001</t>
+  </si>
+  <si>
+    <t>000000100010</t>
+  </si>
+  <si>
+    <t>000000100011</t>
+  </si>
+  <si>
+    <t>000000100100</t>
+  </si>
+  <si>
+    <t>000000100101</t>
+  </si>
+  <si>
+    <t>000000100110</t>
+  </si>
+  <si>
+    <t>000000100111</t>
+  </si>
+  <si>
+    <t>000000101000</t>
+  </si>
+  <si>
+    <t>000000101001</t>
+  </si>
+  <si>
+    <t>000000101010</t>
+  </si>
+  <si>
+    <t>000000101011</t>
+  </si>
+  <si>
+    <t>000000101100</t>
+  </si>
+  <si>
+    <t>000000101101</t>
+  </si>
+  <si>
+    <t>000000101110</t>
+  </si>
+  <si>
+    <t>000000101111</t>
+  </si>
+  <si>
+    <t>000000110000</t>
+  </si>
+  <si>
+    <t>000000110001</t>
+  </si>
+  <si>
+    <t>000000110010</t>
+  </si>
+  <si>
+    <t>000000110011</t>
+  </si>
+  <si>
+    <t>000000110100</t>
+  </si>
+  <si>
+    <t>000000110101</t>
+  </si>
+  <si>
+    <t>000000110110</t>
+  </si>
+  <si>
+    <t>000000110111</t>
+  </si>
+  <si>
+    <t>000000111000</t>
+  </si>
+  <si>
+    <t>000000111001</t>
+  </si>
+  <si>
+    <t>000000111010</t>
+  </si>
+  <si>
+    <t>000000111011</t>
+  </si>
+  <si>
+    <t>000000111100</t>
+  </si>
+  <si>
+    <t>000000111101</t>
+  </si>
+  <si>
+    <t>000000111110</t>
+  </si>
+  <si>
+    <t>000000111111</t>
+  </si>
+  <si>
+    <t>000001000000</t>
+  </si>
+  <si>
+    <t>000001000001</t>
+  </si>
+  <si>
+    <t>000001000010</t>
+  </si>
+  <si>
+    <t>000001000011</t>
+  </si>
+  <si>
+    <t>000001000100</t>
+  </si>
+  <si>
+    <t>000001000101</t>
+  </si>
+  <si>
+    <t>000001000110</t>
+  </si>
+  <si>
+    <t>000001000111</t>
+  </si>
+  <si>
+    <t>000001001000</t>
+  </si>
+  <si>
+    <t>000001001001</t>
+  </si>
+  <si>
+    <t>000001001010</t>
+  </si>
+  <si>
+    <t>000001001011</t>
+  </si>
+  <si>
+    <t>000001001100</t>
+  </si>
+  <si>
+    <t>000001001101</t>
+  </si>
+  <si>
+    <t>000001001110</t>
+  </si>
+  <si>
+    <t>000001001111</t>
+  </si>
+  <si>
+    <t>000001010000</t>
+  </si>
+  <si>
+    <t>000001010001</t>
+  </si>
+  <si>
+    <t>000001010010</t>
+  </si>
+  <si>
+    <t>000001010011</t>
+  </si>
+  <si>
+    <t>000001010100</t>
+  </si>
+  <si>
+    <t>000001010101</t>
+  </si>
+  <si>
+    <t>000001010110</t>
+  </si>
+  <si>
+    <t>000001010111</t>
+  </si>
+  <si>
+    <t>000001011000</t>
+  </si>
+  <si>
+    <t>000001011001</t>
+  </si>
+  <si>
+    <t>000001011010</t>
+  </si>
+  <si>
+    <t>000001011011</t>
+  </si>
+  <si>
+    <t>000001011100</t>
+  </si>
+  <si>
+    <t>000001011101</t>
+  </si>
+  <si>
+    <t>000001011110</t>
+  </si>
+  <si>
+    <t>000001011111</t>
+  </si>
+  <si>
+    <t>000001100000</t>
+  </si>
+  <si>
+    <t>000001100001</t>
+  </si>
+  <si>
+    <t>000001100010</t>
+  </si>
+  <si>
+    <t>000001100011</t>
+  </si>
+  <si>
+    <t>000001100100</t>
+  </si>
+  <si>
+    <t>000001100101</t>
+  </si>
+  <si>
+    <t>000001100110</t>
+  </si>
+  <si>
+    <t>000001100111</t>
+  </si>
+  <si>
+    <t>000001101000</t>
+  </si>
+  <si>
+    <t>000001101001</t>
+  </si>
+  <si>
+    <t>000001101010</t>
+  </si>
+  <si>
+    <t>000001101011</t>
+  </si>
+  <si>
+    <t>000001101100</t>
+  </si>
+  <si>
+    <t>000001101101</t>
+  </si>
+  <si>
+    <t>000001101110</t>
+  </si>
+  <si>
+    <t>000001101111</t>
+  </si>
+  <si>
+    <t>000001110000</t>
+  </si>
+  <si>
+    <t>000001110001</t>
+  </si>
+  <si>
+    <t>000001110010</t>
+  </si>
+  <si>
+    <t>000001110011</t>
+  </si>
+  <si>
+    <t>000001110100</t>
+  </si>
+  <si>
+    <t>000001110101</t>
+  </si>
+  <si>
+    <t>000001110110</t>
+  </si>
+  <si>
+    <t>000001110111</t>
+  </si>
+  <si>
+    <t>000001111000</t>
+  </si>
+  <si>
+    <t>000001111001</t>
+  </si>
+  <si>
+    <t>000001111010</t>
+  </si>
+  <si>
+    <t>000001111011</t>
+  </si>
+  <si>
+    <t>000001111100</t>
+  </si>
+  <si>
+    <t>000001111101</t>
+  </si>
+  <si>
+    <t>000001111110</t>
+  </si>
+  <si>
+    <t>000001111111</t>
+  </si>
+  <si>
+    <t>000010000000</t>
+  </si>
+  <si>
+    <t>000010000001</t>
+  </si>
+  <si>
+    <t>000010000010</t>
+  </si>
+  <si>
+    <t>000010000011</t>
+  </si>
+  <si>
+    <t>000010000100</t>
+  </si>
+  <si>
+    <t>000010000101</t>
+  </si>
+  <si>
+    <t>000010000110</t>
+  </si>
+  <si>
+    <t>000010000111</t>
+  </si>
+  <si>
+    <t>000010001000</t>
+  </si>
+  <si>
+    <t>000010001001</t>
+  </si>
+  <si>
+    <t>000010001010</t>
+  </si>
+  <si>
+    <t>000010001011</t>
+  </si>
+  <si>
+    <t>000010001100</t>
+  </si>
+  <si>
+    <t>000010001101</t>
+  </si>
+  <si>
+    <t>000010001110</t>
+  </si>
+  <si>
+    <t>000010001111</t>
+  </si>
+  <si>
+    <t>000010010000</t>
+  </si>
+  <si>
+    <t>000010010001</t>
+  </si>
+  <si>
+    <t>000010010010</t>
+  </si>
+  <si>
+    <t>000010010011</t>
+  </si>
+  <si>
+    <t>000010010100</t>
+  </si>
+  <si>
+    <t>000010010101</t>
+  </si>
+  <si>
+    <t>000010010110</t>
+  </si>
+  <si>
+    <t>000010010111</t>
+  </si>
+  <si>
+    <t>000010011000</t>
+  </si>
+  <si>
+    <t>000010011001</t>
+  </si>
+  <si>
+    <t>000010011010</t>
+  </si>
+  <si>
+    <t>000010011011</t>
+  </si>
+  <si>
+    <t>000010011100</t>
+  </si>
+  <si>
+    <t>000010011101</t>
+  </si>
+  <si>
+    <t>000010011110</t>
+  </si>
+  <si>
+    <t>000010011111</t>
+  </si>
+  <si>
+    <t>000010100000</t>
+  </si>
+  <si>
+    <t>000010100001</t>
+  </si>
+  <si>
+    <t>000010100010</t>
+  </si>
+  <si>
+    <t>000010100011</t>
+  </si>
+  <si>
+    <t>000010100100</t>
+  </si>
+  <si>
+    <t>000010100101</t>
+  </si>
+  <si>
+    <t>000010100110</t>
+  </si>
+  <si>
+    <t>000010100111</t>
+  </si>
+  <si>
+    <t>000010101000</t>
+  </si>
+  <si>
+    <t>000010101001</t>
+  </si>
+  <si>
+    <t>000010101010</t>
+  </si>
+  <si>
+    <t>000010101011</t>
+  </si>
+  <si>
+    <t>000010101100</t>
+  </si>
+  <si>
+    <t>000010101101</t>
+  </si>
+  <si>
+    <t>000010101110</t>
+  </si>
+  <si>
+    <t>000010101111</t>
+  </si>
+  <si>
+    <t>000010110000</t>
+  </si>
+  <si>
+    <t>000010110001</t>
+  </si>
+  <si>
+    <t>000010110010</t>
+  </si>
+  <si>
+    <t>000010110011</t>
+  </si>
+  <si>
+    <t>000010110100</t>
+  </si>
+  <si>
+    <t>000010110101</t>
+  </si>
+  <si>
+    <t>000010110110</t>
+  </si>
+  <si>
+    <t>000010110111</t>
+  </si>
+  <si>
+    <t>000010111000</t>
+  </si>
+  <si>
+    <t>000010111001</t>
+  </si>
+  <si>
+    <t>000010111010</t>
+  </si>
+  <si>
+    <t>000010111011</t>
+  </si>
+  <si>
+    <t>000010111100</t>
+  </si>
+  <si>
+    <t>000010111101</t>
+  </si>
+  <si>
+    <t>000010111110</t>
+  </si>
+  <si>
+    <t>000010111111</t>
+  </si>
+  <si>
+    <t>000011000000</t>
+  </si>
+  <si>
+    <t>000011000001</t>
+  </si>
+  <si>
+    <t>000011000010</t>
+  </si>
+  <si>
+    <t>000011000011</t>
+  </si>
+  <si>
+    <t>000011000100</t>
+  </si>
+  <si>
+    <t>000011000101</t>
+  </si>
+  <si>
+    <t>000011000110</t>
+  </si>
+  <si>
+    <t>000011000111</t>
+  </si>
+  <si>
+    <t>000011001000</t>
+  </si>
+  <si>
+    <t>000011001001</t>
+  </si>
+  <si>
+    <t>000011001010</t>
+  </si>
+  <si>
+    <t>000011001011</t>
+  </si>
+  <si>
+    <t>000011001100</t>
+  </si>
+  <si>
+    <t>000011001101</t>
+  </si>
+  <si>
+    <t>000011001110</t>
+  </si>
+  <si>
+    <t>000011001111</t>
+  </si>
+  <si>
+    <t>000011010000</t>
+  </si>
+  <si>
+    <t>000011010001</t>
+  </si>
+  <si>
+    <t>000011010010</t>
+  </si>
+  <si>
+    <t>000011010011</t>
+  </si>
+  <si>
+    <t>000011010100</t>
+  </si>
+  <si>
+    <t>000011010101</t>
+  </si>
+  <si>
+    <t>000011010110</t>
+  </si>
+  <si>
+    <t>000011010111</t>
+  </si>
+  <si>
+    <t>000011011000</t>
+  </si>
+  <si>
+    <t>000011011001</t>
+  </si>
+  <si>
+    <t>000011011010</t>
+  </si>
+  <si>
+    <t>000011011011</t>
+  </si>
+  <si>
+    <t>000011011100</t>
+  </si>
+  <si>
+    <t>000011011101</t>
+  </si>
+  <si>
+    <t>000011011110</t>
+  </si>
+  <si>
+    <t>000011011111</t>
+  </si>
+  <si>
+    <t>000011100000</t>
+  </si>
+  <si>
+    <t>000011100001</t>
+  </si>
+  <si>
+    <t>000011100010</t>
+  </si>
+  <si>
+    <t>000011100011</t>
+  </si>
+  <si>
+    <t>000011100100</t>
+  </si>
+  <si>
+    <t>000011100101</t>
+  </si>
+  <si>
+    <t>000011100110</t>
+  </si>
+  <si>
+    <t>000011100111</t>
+  </si>
+  <si>
+    <t>000011101000</t>
+  </si>
+  <si>
+    <t>000011101001</t>
+  </si>
+  <si>
+    <t>000011101010</t>
+  </si>
+  <si>
+    <t>000011101011</t>
+  </si>
+  <si>
+    <t>000011101100</t>
+  </si>
+  <si>
+    <t>000011101101</t>
+  </si>
+  <si>
+    <t>000011101110</t>
+  </si>
+  <si>
+    <t>000011101111</t>
+  </si>
+  <si>
+    <t>000011110000</t>
+  </si>
+  <si>
+    <t>000011110001</t>
+  </si>
+  <si>
+    <t>000011110010</t>
+  </si>
+  <si>
+    <t>000011110011</t>
+  </si>
+  <si>
+    <t>000011110100</t>
+  </si>
+  <si>
+    <t>000011110101</t>
+  </si>
+  <si>
+    <t>000011110110</t>
+  </si>
+  <si>
+    <t>000011110111</t>
+  </si>
+  <si>
+    <t>000011111000</t>
+  </si>
+  <si>
+    <t>000011111001</t>
+  </si>
+  <si>
+    <t>000011111010</t>
+  </si>
+  <si>
+    <t>000011111011</t>
+  </si>
+  <si>
+    <t>000011111100</t>
+  </si>
+  <si>
+    <t>000011111101</t>
+  </si>
+  <si>
+    <t>000011111110</t>
+  </si>
+  <si>
+    <t>000011111111</t>
+  </si>
+  <si>
+    <t>000100000000</t>
+  </si>
+  <si>
+    <t>000100000001</t>
+  </si>
+  <si>
+    <t>000100000010</t>
+  </si>
+  <si>
+    <t>000100000011</t>
+  </si>
+  <si>
+    <t>000100000100</t>
+  </si>
+  <si>
+    <t>000100000101</t>
+  </si>
+  <si>
+    <t>000100000110</t>
+  </si>
+  <si>
+    <t>000100000111</t>
+  </si>
+  <si>
+    <t>000100001000</t>
+  </si>
+  <si>
+    <t>000100001001</t>
+  </si>
+  <si>
+    <t>000100001010</t>
+  </si>
+  <si>
+    <t>000100001011</t>
+  </si>
+  <si>
+    <t>000100001100</t>
+  </si>
+  <si>
+    <t>000100001101</t>
+  </si>
+  <si>
+    <t>000100001110</t>
+  </si>
+  <si>
+    <t>000100001111</t>
+  </si>
+  <si>
+    <t>000100010000</t>
+  </si>
+  <si>
+    <t>000100010001</t>
+  </si>
+  <si>
+    <t>000100010010</t>
+  </si>
+  <si>
+    <t>000100010011</t>
+  </si>
+  <si>
+    <t>000100010100</t>
+  </si>
+  <si>
+    <t>000100010101</t>
+  </si>
+  <si>
+    <t>000100010110</t>
+  </si>
+  <si>
+    <t>000100010111</t>
+  </si>
+  <si>
+    <t>000100011000</t>
+  </si>
+  <si>
+    <t>000100011001</t>
+  </si>
+  <si>
+    <t>000100011010</t>
+  </si>
+  <si>
+    <t>000100011011</t>
+  </si>
+  <si>
+    <t>000100011100</t>
+  </si>
+  <si>
+    <t>000100011101</t>
+  </si>
+  <si>
+    <t>000100011110</t>
+  </si>
+  <si>
+    <t>000100011111</t>
+  </si>
+  <si>
+    <t>000100100000</t>
+  </si>
+  <si>
+    <t>000100100001</t>
+  </si>
+  <si>
+    <t>MEM[MemoryPointer]=R0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR R0,IX1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100001000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDR R1, MEM[30]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1262,7 +2596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1320,70 +2654,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1407,7 +2678,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1727,8 +3064,8 @@
   <dimension ref="A1:G1026"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="33" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="33" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1760,13 +3097,13 @@
       <c r="B2" s="4">
         <v>2000</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -1775,11 +3112,11 @@
       <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -1788,11 +3125,11 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -1801,11 +3138,11 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -1814,11 +3151,11 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -1827,39 +3164,39 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+        <v>206</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1868,11 +3205,11 @@
       <c r="B10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1881,33 +3218,33 @@
       <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1916,11 +3253,11 @@
       <c r="B14" s="7">
         <v>283</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1929,11 +3266,11 @@
       <c r="B15" s="8">
         <v>238</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1942,11 +3279,11 @@
       <c r="B16" s="13">
         <v>900</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -1955,11 +3292,11 @@
       <c r="B17" s="13">
         <v>0</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -1968,11 +3305,11 @@
       <c r="B18" s="13">
         <v>206</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -1981,11 +3318,11 @@
       <c r="B19" s="13">
         <v>32</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -1994,11 +3331,11 @@
       <c r="B20" s="13">
         <v>172</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -2007,37 +3344,37 @@
       <c r="B21" s="3">
         <v>140</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+        <v>82</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+        <v>81</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -2046,24 +3383,24 @@
       <c r="B24" s="3">
         <v>102</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+        <v>69</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
@@ -2072,37 +3409,37 @@
       <c r="B26" s="13">
         <v>2000</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+        <v>67</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+        <v>68</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
@@ -2111,24 +3448,24 @@
       <c r="B29" s="13">
         <v>71</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+        <v>49</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -2137,24 +3474,24 @@
       <c r="B31" s="3">
         <v>40</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+        <v>48</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -2163,11 +3500,11 @@
       <c r="B33" s="3">
         <v>1000</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
@@ -2176,15 +3513,15 @@
       <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
@@ -2193,11 +3530,11 @@
       <c r="B35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="25"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
@@ -2206,11 +3543,11 @@
       <c r="B36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="19"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="25"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
@@ -2219,11 +3556,11 @@
       <c r="B37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="19"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="25"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
@@ -2232,11 +3569,11 @@
       <c r="B38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="25"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
@@ -2245,11 +3582,11 @@
       <c r="B39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="19"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="25"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
@@ -2258,11 +3595,11 @@
       <c r="B40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="19"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="25"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
@@ -2271,41 +3608,41 @@
       <c r="B41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="25"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="D42" s="16"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="25"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="D43" s="16"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="25"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
@@ -2318,37 +3655,37 @@
         <v>29</v>
       </c>
       <c r="D44" s="16"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="25"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="33"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="16"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="25"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="25"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="33"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
@@ -2358,12 +3695,12 @@
         <v>31</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="16"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="25"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="33"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
@@ -2373,12 +3710,12 @@
         <v>32</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48" s="16"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="25"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="33"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
@@ -2388,12 +3725,12 @@
         <v>20</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" s="16"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="25"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="33"/>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
@@ -2404,52 +3741,52 @@
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="25"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="33"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>34</v>
+        <v>614</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>38</v>
+        <v>613</v>
       </c>
       <c r="D51" s="16"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="25"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="33"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D52" s="16"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="25"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="33"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="25"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="33"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
@@ -2460,37 +3797,37 @@
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="25"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="33"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D55" s="16"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="25"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="33"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="25"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="33"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
@@ -2499,13 +3836,13 @@
       <c r="B57" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="25"/>
+      <c r="C57" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="33"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
@@ -2514,11 +3851,11 @@
       <c r="B58" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="19"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="25"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="33"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
@@ -2527,11 +3864,11 @@
       <c r="B59" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="19"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="17"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="25"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="33"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
@@ -2540,11 +3877,11 @@
       <c r="B60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="19"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="25"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="33"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
@@ -2553,11 +3890,11 @@
       <c r="B61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="19"/>
+      <c r="C61" s="28"/>
       <c r="D61" s="17"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="25"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="33"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
@@ -2566,11 +3903,11 @@
       <c r="B62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="19"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="25"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="33"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
@@ -2579,11 +3916,11 @@
       <c r="B63" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="19"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="25"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="33"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
@@ -2592,11 +3929,11 @@
       <c r="B64" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="27"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
@@ -2605,15 +3942,15 @@
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="39"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F65" s="22"/>
-      <c r="G65" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="F65" s="30"/>
+      <c r="G65" s="31"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
@@ -2622,11 +3959,11 @@
       <c r="B66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="19"/>
+      <c r="C66" s="28"/>
       <c r="D66" s="17"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="25"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="33"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
@@ -2635,11 +3972,11 @@
       <c r="B67" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="19"/>
+      <c r="C67" s="28"/>
       <c r="D67" s="17"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="25"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="33"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
@@ -2648,11 +3985,11 @@
       <c r="B68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="19"/>
+      <c r="C68" s="28"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="25"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="33"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
@@ -2661,11 +3998,11 @@
       <c r="B69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="19"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="25"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="33"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
@@ -2674,11 +4011,11 @@
       <c r="B70" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="19"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="25"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="33"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
@@ -2687,11 +4024,11 @@
       <c r="B71" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="19"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="17"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="25"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="33"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
@@ -2700,99 +4037,99 @@
       <c r="B72" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="20"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="25"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="33"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D73" s="16"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="25"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="33"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
         <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>56</v>
+        <v>616</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D74" s="16"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="25"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="33"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>73</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D75" s="16"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="25"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="33"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D76" s="16"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="25"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="33"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>75</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="25"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="33"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>76</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D78" s="16"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="25"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="33"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
@@ -2803,67 +4140,67 @@
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="25"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="33"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="25"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="33"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>79</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D81" s="16"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="25"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="33"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="14">
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D82" s="16"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="25"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="33"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="14">
         <v>81</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D83" s="16"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="25"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="33"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="14">
@@ -2874,50 +4211,50 @@
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="25"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="33"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>83</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="25"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="33"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D86" s="16"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="25"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="33"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>85</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="25"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="33"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
@@ -2926,13 +4263,13 @@
       <c r="B88" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D88" s="40"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="25"/>
+      <c r="C88" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88" s="20"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="33"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
@@ -2941,11 +4278,11 @@
       <c r="B89" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="19"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="17"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="25"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="33"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
@@ -2954,11 +4291,11 @@
       <c r="B90" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="19"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="17"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="25"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="33"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
@@ -2967,11 +4304,11 @@
       <c r="B91" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="19"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="17"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="25"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="33"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="14">
@@ -2980,11 +4317,11 @@
       <c r="B92" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="19"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="17"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="25"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="33"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="14">
@@ -2993,11 +4330,11 @@
       <c r="B93" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="19"/>
+      <c r="C93" s="28"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="25"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="33"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="14">
@@ -3006,11 +4343,11 @@
       <c r="B94" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="19"/>
+      <c r="C94" s="28"/>
       <c r="D94" s="17"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="25"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="33"/>
     </row>
     <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
@@ -3019,11 +4356,11 @@
       <c r="B95" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="27"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="18"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="28"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="36"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
@@ -3032,15 +4369,15 @@
       <c r="B96" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="37" t="s">
+      <c r="C96" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="39"/>
+      <c r="D96" s="19"/>
       <c r="E96" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F96" s="22"/>
-      <c r="G96" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="F96" s="30"/>
+      <c r="G96" s="31"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
@@ -3049,11 +4386,11 @@
       <c r="B97" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="19"/>
+      <c r="C97" s="28"/>
       <c r="D97" s="17"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="25"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="33"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="14">
@@ -3062,11 +4399,11 @@
       <c r="B98" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="19"/>
+      <c r="C98" s="28"/>
       <c r="D98" s="17"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="25"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="33"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="14">
@@ -3075,11 +4412,11 @@
       <c r="B99" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="19"/>
+      <c r="C99" s="28"/>
       <c r="D99" s="17"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="25"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="33"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="14">
@@ -3088,11 +4425,11 @@
       <c r="B100" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="19"/>
+      <c r="C100" s="28"/>
       <c r="D100" s="17"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="25"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="33"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="14">
@@ -3101,11 +4438,11 @@
       <c r="B101" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="19"/>
+      <c r="C101" s="28"/>
       <c r="D101" s="17"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="25"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="33"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="14">
@@ -3114,11 +4451,11 @@
       <c r="B102" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="19"/>
+      <c r="C102" s="28"/>
       <c r="D102" s="17"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="25"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="33"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="14">
@@ -3127,43 +4464,43 @@
       <c r="B103" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="20"/>
+      <c r="C103" s="45"/>
       <c r="D103" s="17"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="25"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="33"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="14">
         <v>102</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D104" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="25"/>
+        <v>71</v>
+      </c>
+      <c r="D104" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E104" s="32"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="33"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="14">
         <v>103</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C105" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D105" s="19"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="25"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="33"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="14">
@@ -3175,68 +4512,68 @@
       <c r="C106" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="25"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="33"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="14">
         <v>105</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="25"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="33"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="14">
         <v>106</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C108" s="16"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="25"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="33"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="14">
         <v>107</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="25"/>
+        <v>74</v>
+      </c>
+      <c r="D109" s="28"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="33"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="14">
         <v>108</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D110" s="19"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="D110" s="28"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="33"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="14">
@@ -3246,12 +4583,12 @@
         <v>20</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D111" s="19"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="D111" s="28"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="33"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="14">
@@ -3261,126 +4598,126 @@
         <v>33</v>
       </c>
       <c r="C112" s="16"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="25"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="33"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="14">
         <v>111</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>34</v>
+        <v>614</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="25"/>
+        <v>613</v>
+      </c>
+      <c r="D113" s="28"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="33"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="14">
         <v>112</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D114" s="19"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="D114" s="28"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="33"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="14">
         <v>113</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C115" s="16"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="25"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="33"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="14">
         <v>114</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C116" s="16"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="25"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="33"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="14">
         <v>115</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D117" s="19"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="D117" s="28"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="33"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="14">
         <v>116</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C118" s="16"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="25"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="33"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="14">
         <v>117</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D119" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="25"/>
+        <v>84</v>
+      </c>
+      <c r="D119" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E119" s="32"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="33"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="14">
         <v>118</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D120" s="19"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="D120" s="28"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="33"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="14">
@@ -3390,124 +4727,124 @@
         <v>6</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="25"/>
+        <v>86</v>
+      </c>
+      <c r="D121" s="28"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="33"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="14">
         <v>120</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C122" s="16"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="25"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="33"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="14">
         <v>121</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="25"/>
+        <v>91</v>
+      </c>
+      <c r="D123" s="28"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="33"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="14">
         <v>122</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D124" s="19"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="D124" s="28"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="33"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="14">
         <v>123</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C125" s="16"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="25"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="33"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="14">
         <v>124</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D126" s="19"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="25"/>
+        <v>87</v>
+      </c>
+      <c r="D126" s="28"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="33"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="14">
         <v>125</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C127" s="16"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="25"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="33"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="14">
         <v>126</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C128" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D128" s="19"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="25"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="33"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="14">
         <v>127</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C129" s="16"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="25"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="33"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="14">
@@ -3517,51 +4854,51 @@
         <v>33</v>
       </c>
       <c r="C130" s="16"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="25"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="33"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="14">
         <v>129</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D131" s="19"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="D131" s="28"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="33"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="14">
         <v>130</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C132" s="16"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="25"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="33"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="14">
         <v>131</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C133" s="16"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="25"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="33"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="14">
@@ -3571,10 +4908,10 @@
         <v>18</v>
       </c>
       <c r="C134" s="16"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="25"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="33"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="14">
@@ -3584,25 +4921,25 @@
         <v>33</v>
       </c>
       <c r="C135" s="16"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="25"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="33"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="14">
         <v>134</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D136" s="19"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="25"/>
+        <v>102</v>
+      </c>
+      <c r="D136" s="28"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="33"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14">
@@ -3612,111 +4949,111 @@
         <v>6</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D137" s="19"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="D137" s="28"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="33"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="14">
         <v>136</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C138" s="16"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="25"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="33"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="14">
         <v>137</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D139" s="19"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="25"/>
+        <v>106</v>
+      </c>
+      <c r="D139" s="28"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="33"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="14">
         <v>138</v>
       </c>
-      <c r="B140" s="42" t="s">
-        <v>132</v>
+      <c r="B140" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="C140" s="16"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="25"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="33"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="14">
         <v>139</v>
       </c>
-      <c r="B141" s="42" t="s">
-        <v>138</v>
+      <c r="B141" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D141" s="19"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="25"/>
+        <v>135</v>
+      </c>
+      <c r="D141" s="28"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="33"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="14">
         <v>140</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C142" s="16"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="25"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="33"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="14">
         <v>141</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D143" s="19"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="25"/>
+        <v>109</v>
+      </c>
+      <c r="D143" s="28"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="33"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="14">
         <v>142</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D144" s="19"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="25"/>
+        <v>110</v>
+      </c>
+      <c r="D144" s="28"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="33"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="14">
@@ -3726,204 +5063,204 @@
         <v>6</v>
       </c>
       <c r="C145" s="16"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="25"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="14">
         <v>144</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C146" s="16"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="25"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="14">
         <v>145</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C147" s="16"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="25"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="33"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="14">
         <v>146</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D148" s="19"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="25"/>
+        <v>117</v>
+      </c>
+      <c r="D148" s="28"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="33"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="14">
         <v>147</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C149" s="16"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="25"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="33"/>
     </row>
     <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14">
         <v>148</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C150" s="16"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="25"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="33"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="14">
         <v>149</v>
       </c>
-      <c r="B151" s="47" t="s">
-        <v>192</v>
+      <c r="B151" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="C151" s="16"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="25"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="33"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="14">
         <v>150</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D152" s="19"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="25"/>
+        <v>114</v>
+      </c>
+      <c r="D152" s="28"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="33"/>
     </row>
     <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14">
         <v>151</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C153" s="16"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="25"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="33"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="14">
         <v>152</v>
       </c>
-      <c r="B154" s="47" t="s">
-        <v>192</v>
+      <c r="B154" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="C154" s="16"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="25"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="33"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="14">
         <v>153</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D155" s="19"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="25"/>
+        <v>115</v>
+      </c>
+      <c r="D155" s="28"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="33"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="14">
         <v>154</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C156" s="16"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="25"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="33"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="14">
         <v>155</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D157" s="19"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="25"/>
+        <v>118</v>
+      </c>
+      <c r="D157" s="28"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="33"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="14">
         <v>156</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D158" s="19"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="25"/>
+        <v>120</v>
+      </c>
+      <c r="D158" s="28"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="33"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="14">
         <v>157</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D159" s="19"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="25"/>
+        <v>122</v>
+      </c>
+      <c r="D159" s="28"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="33"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="14">
@@ -3933,10 +5270,10 @@
         <v>11</v>
       </c>
       <c r="C160" s="16"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="25"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="33"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="14">
@@ -3946,64 +5283,64 @@
         <v>33</v>
       </c>
       <c r="C161" s="16"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="25"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="33"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="14">
         <v>160</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D162" s="19"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="D162" s="28"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="33"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="14">
         <v>161</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C163" s="16"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="25"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="33"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="14">
         <v>162</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C164" s="16"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="25"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="33"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="14">
         <v>163</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C165" s="16"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="25"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="33"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="14">
@@ -4013,10 +5350,10 @@
         <v>20</v>
       </c>
       <c r="C166" s="16"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="25"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="33"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="14">
@@ -4026,25 +5363,25 @@
         <v>33</v>
       </c>
       <c r="C167" s="16"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="25"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="33"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="14">
         <v>166</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D168" s="19"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="25"/>
+        <v>102</v>
+      </c>
+      <c r="D168" s="28"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="33"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="14">
@@ -4054,150 +5391,150 @@
         <v>6</v>
       </c>
       <c r="C169" s="16"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="25"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="33"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="14">
         <v>168</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C170" s="16"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="25"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="28"/>
+      <c r="G170" s="33"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="14">
         <v>169</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D171" s="19"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="D171" s="28"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="33"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="14">
         <v>170</v>
       </c>
-      <c r="B172" s="42" t="s">
-        <v>132</v>
+      <c r="B172" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="C172" s="16"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="25"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="33"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="14">
         <v>171</v>
       </c>
-      <c r="B173" s="42" t="s">
-        <v>138</v>
+      <c r="B173" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D173" s="19"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="25"/>
+        <v>126</v>
+      </c>
+      <c r="D173" s="28"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="33"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="14">
         <v>172</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C174" s="16"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="25"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="33"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="14">
         <v>173</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C175" s="16"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="25"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="33"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="14">
         <v>174</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D176" s="19"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="25"/>
+        <v>131</v>
+      </c>
+      <c r="D176" s="28"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="33"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="14">
         <v>175</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C177" s="16"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="25"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="33"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="14">
         <v>176</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D178" s="19"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="25"/>
+        <v>133</v>
+      </c>
+      <c r="D178" s="28"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="33"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="14">
         <v>177</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D179" s="19"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="25"/>
+        <v>136</v>
+      </c>
+      <c r="D179" s="28"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="33"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="14">
@@ -4207,53 +5544,53 @@
         <v>9</v>
       </c>
       <c r="C180" s="16"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="24"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="25"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="28"/>
+      <c r="G180" s="33"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="14">
         <v>179</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D181" s="19"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="25"/>
+        <v>138</v>
+      </c>
+      <c r="D181" s="28"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="33"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="14">
         <v>180</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C182" s="16"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="25"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="33"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="14">
         <v>181</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D183" s="19"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="D183" s="28"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="33"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="14">
@@ -4263,10 +5600,10 @@
         <v>11</v>
       </c>
       <c r="C184" s="16"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="25"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="33"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="14">
@@ -4276,40 +5613,40 @@
         <v>33</v>
       </c>
       <c r="C185" s="16"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="25"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="33"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="14">
         <v>184</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D186" s="19"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="25"/>
+        <v>140</v>
+      </c>
+      <c r="D186" s="28"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="33"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="14">
         <v>185</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D187" s="19"/>
-      <c r="E187" s="24"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="25"/>
+        <v>166</v>
+      </c>
+      <c r="D187" s="28"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="33"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="14">
@@ -4319,206 +5656,206 @@
         <v>6</v>
       </c>
       <c r="C188" s="16"/>
-      <c r="D188" s="19"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="19"/>
-      <c r="G188" s="25"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="33"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="14">
         <v>187</v>
       </c>
-      <c r="B189" s="42" t="s">
-        <v>132</v>
+      <c r="B189" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="C189" s="16"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="24"/>
-      <c r="F189" s="19"/>
-      <c r="G189" s="25"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="33"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="14">
         <v>188</v>
       </c>
-      <c r="B190" s="42" t="s">
-        <v>150</v>
+      <c r="B190" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D190" s="19"/>
-      <c r="E190" s="24"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="25"/>
+        <v>170</v>
+      </c>
+      <c r="D190" s="28"/>
+      <c r="E190" s="32"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="33"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="14">
         <v>189</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C191" s="16"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="25"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="32"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="33"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="14">
         <v>190</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D192" s="19"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="19"/>
-      <c r="G192" s="25"/>
+        <v>150</v>
+      </c>
+      <c r="D192" s="28"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="33"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="14">
         <v>191</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C193" s="16"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="25"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="33"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="14">
         <v>192</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C194" s="16"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="25"/>
+      <c r="D194" s="28"/>
+      <c r="E194" s="32"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="33"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="14">
         <v>193</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D195" s="19"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="25"/>
+        <v>142</v>
+      </c>
+      <c r="D195" s="28"/>
+      <c r="E195" s="32"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="33"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="14">
         <v>194</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C196" s="16"/>
-      <c r="D196" s="19"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="25"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="32"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="33"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="14">
         <v>195</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C197" s="16"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="25"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="33"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="14">
         <v>196</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D198" s="19"/>
-      <c r="E198" s="24"/>
-      <c r="F198" s="19"/>
-      <c r="G198" s="25"/>
+        <v>138</v>
+      </c>
+      <c r="D198" s="28"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="33"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="14">
         <v>197</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D199" s="19"/>
-      <c r="E199" s="24"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="25"/>
+        <v>148</v>
+      </c>
+      <c r="D199" s="28"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="33"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="14">
         <v>198</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D200" s="19"/>
-      <c r="E200" s="24"/>
-      <c r="F200" s="19"/>
-      <c r="G200" s="25"/>
+        <v>151</v>
+      </c>
+      <c r="D200" s="28"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="28"/>
+      <c r="G200" s="33"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="14">
         <v>199</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C201" s="43"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="25"/>
+        <v>153</v>
+      </c>
+      <c r="C201" s="22"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="33"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="14">
         <v>200</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D202" s="19"/>
-      <c r="E202" s="24"/>
-      <c r="F202" s="19"/>
-      <c r="G202" s="25"/>
+        <v>152</v>
+      </c>
+      <c r="D202" s="28"/>
+      <c r="E202" s="32"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="33"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="14">
@@ -4528,176 +5865,176 @@
         <v>6</v>
       </c>
       <c r="C203" s="16"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="25"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="32"/>
+      <c r="F203" s="28"/>
+      <c r="G203" s="33"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="14">
         <v>202</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C204" s="16"/>
-      <c r="D204" s="19"/>
-      <c r="E204" s="24"/>
-      <c r="F204" s="19"/>
-      <c r="G204" s="25"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="33"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="14">
         <v>203</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D205" s="19"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="25"/>
+        <v>157</v>
+      </c>
+      <c r="D205" s="28"/>
+      <c r="E205" s="32"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="33"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="14">
         <v>204</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C206" s="16"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="19"/>
-      <c r="G206" s="25"/>
+      <c r="D206" s="28"/>
+      <c r="E206" s="32"/>
+      <c r="F206" s="28"/>
+      <c r="G206" s="33"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="14">
         <v>205</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D207" s="19"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="19"/>
-      <c r="G207" s="25"/>
+        <v>158</v>
+      </c>
+      <c r="D207" s="28"/>
+      <c r="E207" s="32"/>
+      <c r="F207" s="28"/>
+      <c r="G207" s="33"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="14">
         <v>206</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C208" s="16"/>
-      <c r="D208" s="19"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="19"/>
-      <c r="G208" s="25"/>
+      <c r="D208" s="28"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="28"/>
+      <c r="G208" s="33"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="14">
         <v>207</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C209" s="16"/>
-      <c r="D209" s="19"/>
-      <c r="E209" s="24"/>
-      <c r="F209" s="19"/>
-      <c r="G209" s="25"/>
+      <c r="D209" s="28"/>
+      <c r="E209" s="32"/>
+      <c r="F209" s="28"/>
+      <c r="G209" s="33"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="14">
         <v>208</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D210" s="19"/>
-      <c r="E210" s="24"/>
-      <c r="F210" s="19"/>
-      <c r="G210" s="25"/>
+        <v>160</v>
+      </c>
+      <c r="D210" s="28"/>
+      <c r="E210" s="32"/>
+      <c r="F210" s="28"/>
+      <c r="G210" s="33"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="14">
         <v>209</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C211" s="16"/>
-      <c r="D211" s="19"/>
-      <c r="E211" s="24"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="25"/>
+      <c r="D211" s="28"/>
+      <c r="E211" s="32"/>
+      <c r="F211" s="28"/>
+      <c r="G211" s="33"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="14">
         <v>210</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D212" s="19"/>
-      <c r="E212" s="24"/>
-      <c r="F212" s="19"/>
-      <c r="G212" s="25"/>
+        <v>162</v>
+      </c>
+      <c r="D212" s="28"/>
+      <c r="E212" s="32"/>
+      <c r="F212" s="28"/>
+      <c r="G212" s="33"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="14">
         <v>211</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C213" s="16"/>
-      <c r="D213" s="19"/>
-      <c r="E213" s="24"/>
-      <c r="F213" s="19"/>
-      <c r="G213" s="25"/>
+      <c r="D213" s="28"/>
+      <c r="E213" s="32"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="33"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="14">
         <v>212</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C214" s="16"/>
-      <c r="D214" s="19"/>
-      <c r="E214" s="24"/>
-      <c r="F214" s="19"/>
-      <c r="G214" s="25"/>
+      <c r="D214" s="28"/>
+      <c r="E214" s="32"/>
+      <c r="F214" s="28"/>
+      <c r="G214" s="33"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="14">
         <v>213</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D215" s="19"/>
-      <c r="E215" s="24"/>
-      <c r="F215" s="19"/>
-      <c r="G215" s="25"/>
+        <v>138</v>
+      </c>
+      <c r="D215" s="28"/>
+      <c r="E215" s="32"/>
+      <c r="F215" s="28"/>
+      <c r="G215" s="33"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="14">
@@ -4707,23 +6044,23 @@
         <v>31</v>
       </c>
       <c r="C216" s="16"/>
-      <c r="D216" s="19"/>
-      <c r="E216" s="24"/>
-      <c r="F216" s="19"/>
-      <c r="G216" s="25"/>
+      <c r="D216" s="28"/>
+      <c r="E216" s="32"/>
+      <c r="F216" s="28"/>
+      <c r="G216" s="33"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="14">
         <v>215</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C217" s="16"/>
-      <c r="D217" s="19"/>
-      <c r="E217" s="24"/>
-      <c r="F217" s="19"/>
-      <c r="G217" s="25"/>
+      <c r="D217" s="28"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="28"/>
+      <c r="G217" s="33"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="14">
@@ -4733,10 +6070,10 @@
         <v>20</v>
       </c>
       <c r="C218" s="16"/>
-      <c r="D218" s="19"/>
-      <c r="E218" s="24"/>
-      <c r="F218" s="19"/>
-      <c r="G218" s="25"/>
+      <c r="D218" s="28"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="28"/>
+      <c r="G218" s="33"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="14">
@@ -4746,40 +6083,40 @@
         <v>33</v>
       </c>
       <c r="C219" s="16"/>
-      <c r="D219" s="19"/>
-      <c r="E219" s="24"/>
-      <c r="F219" s="19"/>
-      <c r="G219" s="25"/>
+      <c r="D219" s="28"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="28"/>
+      <c r="G219" s="33"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="14">
         <v>218</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D220" s="19"/>
-      <c r="E220" s="24"/>
-      <c r="F220" s="19"/>
-      <c r="G220" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="D220" s="28"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="28"/>
+      <c r="G220" s="33"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="14">
         <v>219</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D221" s="19"/>
-      <c r="E221" s="24"/>
-      <c r="F221" s="19"/>
-      <c r="G221" s="25"/>
+        <v>167</v>
+      </c>
+      <c r="D221" s="28"/>
+      <c r="E221" s="32"/>
+      <c r="F221" s="28"/>
+      <c r="G221" s="33"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="14">
@@ -4789,154 +6126,154 @@
         <v>6</v>
       </c>
       <c r="C222" s="16"/>
-      <c r="D222" s="19"/>
-      <c r="E222" s="24"/>
-      <c r="F222" s="19"/>
-      <c r="G222" s="25"/>
+      <c r="D222" s="28"/>
+      <c r="E222" s="32"/>
+      <c r="F222" s="28"/>
+      <c r="G222" s="33"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="14">
         <v>221</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D223" s="19"/>
-      <c r="E223" s="24"/>
-      <c r="F223" s="19"/>
-      <c r="G223" s="25"/>
+        <v>168</v>
+      </c>
+      <c r="D223" s="28"/>
+      <c r="E223" s="32"/>
+      <c r="F223" s="28"/>
+      <c r="G223" s="33"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="14">
         <v>222</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C224" s="16"/>
-      <c r="D224" s="19"/>
-      <c r="E224" s="24"/>
-      <c r="F224" s="19"/>
-      <c r="G224" s="25"/>
+      <c r="D224" s="28"/>
+      <c r="E224" s="32"/>
+      <c r="F224" s="28"/>
+      <c r="G224" s="33"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="14">
         <v>223</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D225" s="19"/>
-      <c r="E225" s="24"/>
-      <c r="F225" s="19"/>
-      <c r="G225" s="25"/>
+        <v>148</v>
+      </c>
+      <c r="D225" s="28"/>
+      <c r="E225" s="32"/>
+      <c r="F225" s="28"/>
+      <c r="G225" s="33"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D226" s="19"/>
-      <c r="E226" s="24"/>
-      <c r="F226" s="19"/>
-      <c r="G226" s="25"/>
+        <v>151</v>
+      </c>
+      <c r="D226" s="28"/>
+      <c r="E226" s="32"/>
+      <c r="F226" s="28"/>
+      <c r="G226" s="33"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C227" s="16"/>
-      <c r="D227" s="19"/>
-      <c r="E227" s="24"/>
-      <c r="F227" s="19"/>
-      <c r="G227" s="25"/>
+      <c r="D227" s="28"/>
+      <c r="E227" s="32"/>
+      <c r="F227" s="28"/>
+      <c r="G227" s="33"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C228" s="16"/>
-      <c r="D228" s="19"/>
-      <c r="E228" s="24"/>
-      <c r="F228" s="19"/>
-      <c r="G228" s="25"/>
+      <c r="D228" s="28"/>
+      <c r="E228" s="32"/>
+      <c r="F228" s="28"/>
+      <c r="G228" s="33"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D229" s="19"/>
-      <c r="E229" s="24"/>
-      <c r="F229" s="19"/>
-      <c r="G229" s="25"/>
+        <v>138</v>
+      </c>
+      <c r="D229" s="28"/>
+      <c r="E229" s="32"/>
+      <c r="F229" s="28"/>
+      <c r="G229" s="33"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D230" s="19"/>
-      <c r="E230" s="24"/>
-      <c r="F230" s="19"/>
-      <c r="G230" s="25"/>
+        <v>148</v>
+      </c>
+      <c r="D230" s="28"/>
+      <c r="E230" s="32"/>
+      <c r="F230" s="28"/>
+      <c r="G230" s="33"/>
     </row>
     <row r="231" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D231" s="19"/>
-      <c r="E231" s="24"/>
-      <c r="F231" s="19"/>
-      <c r="G231" s="25"/>
+        <v>151</v>
+      </c>
+      <c r="D231" s="28"/>
+      <c r="E231" s="32"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="33"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" s="47" t="s">
+      <c r="B232" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C232" s="48" t="s">
-        <v>151</v>
+      <c r="C232" s="47" t="s">
+        <v>147</v>
       </c>
       <c r="D232" s="16"/>
-      <c r="E232" s="24"/>
-      <c r="F232" s="19"/>
-      <c r="G232" s="25"/>
+      <c r="E232" s="32"/>
+      <c r="F232" s="28"/>
+      <c r="G232" s="33"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
@@ -4945,11 +6282,11 @@
       <c r="B233" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C233" s="25"/>
+      <c r="C233" s="33"/>
       <c r="D233" s="16"/>
-      <c r="E233" s="24"/>
-      <c r="F233" s="19"/>
-      <c r="G233" s="25"/>
+      <c r="E233" s="32"/>
+      <c r="F233" s="28"/>
+      <c r="G233" s="33"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
@@ -4958,11 +6295,11 @@
       <c r="B234" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C234" s="25"/>
+      <c r="C234" s="33"/>
       <c r="D234" s="16"/>
-      <c r="E234" s="24"/>
-      <c r="F234" s="19"/>
-      <c r="G234" s="25"/>
+      <c r="E234" s="32"/>
+      <c r="F234" s="28"/>
+      <c r="G234" s="33"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
@@ -4971,11 +6308,11 @@
       <c r="B235" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C235" s="25"/>
+      <c r="C235" s="33"/>
       <c r="D235" s="16"/>
-      <c r="E235" s="24"/>
-      <c r="F235" s="19"/>
-      <c r="G235" s="25"/>
+      <c r="E235" s="32"/>
+      <c r="F235" s="28"/>
+      <c r="G235" s="33"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
@@ -4984,11 +6321,11 @@
       <c r="B236" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C236" s="25"/>
+      <c r="C236" s="33"/>
       <c r="D236" s="16"/>
-      <c r="E236" s="24"/>
-      <c r="F236" s="19"/>
-      <c r="G236" s="25"/>
+      <c r="E236" s="32"/>
+      <c r="F236" s="28"/>
+      <c r="G236" s="33"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
@@ -4997,11 +6334,11 @@
       <c r="B237" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C237" s="25"/>
+      <c r="C237" s="33"/>
       <c r="D237" s="16"/>
-      <c r="E237" s="24"/>
-      <c r="F237" s="19"/>
-      <c r="G237" s="25"/>
+      <c r="E237" s="32"/>
+      <c r="F237" s="28"/>
+      <c r="G237" s="33"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
@@ -5010,11 +6347,11 @@
       <c r="B238" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C238" s="25"/>
+      <c r="C238" s="33"/>
       <c r="D238" s="16"/>
-      <c r="E238" s="24"/>
-      <c r="F238" s="19"/>
-      <c r="G238" s="25"/>
+      <c r="E238" s="32"/>
+      <c r="F238" s="28"/>
+      <c r="G238" s="33"/>
     </row>
     <row r="239" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
@@ -5023,11 +6360,11 @@
       <c r="B239" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C239" s="28"/>
-      <c r="D239" s="44"/>
-      <c r="E239" s="26"/>
-      <c r="F239" s="27"/>
-      <c r="G239" s="28"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="23"/>
+      <c r="E239" s="34"/>
+      <c r="F239" s="35"/>
+      <c r="G239" s="36"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
@@ -5036,15 +6373,15 @@
       <c r="B240" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C240" s="33" t="s">
+      <c r="C240" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D240" s="45"/>
+      <c r="D240" s="24"/>
       <c r="E240" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F240" s="22"/>
-      <c r="G240" s="23"/>
+        <v>194</v>
+      </c>
+      <c r="F240" s="30"/>
+      <c r="G240" s="31"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
@@ -5053,11 +6390,11 @@
       <c r="B241" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C241" s="34"/>
+      <c r="C241" s="38"/>
       <c r="D241" s="16"/>
-      <c r="E241" s="24"/>
-      <c r="F241" s="19"/>
-      <c r="G241" s="25"/>
+      <c r="E241" s="32"/>
+      <c r="F241" s="28"/>
+      <c r="G241" s="33"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
@@ -5066,11 +6403,11 @@
       <c r="B242" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C242" s="34"/>
+      <c r="C242" s="38"/>
       <c r="D242" s="16"/>
-      <c r="E242" s="24"/>
-      <c r="F242" s="19"/>
-      <c r="G242" s="25"/>
+      <c r="E242" s="32"/>
+      <c r="F242" s="28"/>
+      <c r="G242" s="33"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
@@ -5079,11 +6416,11 @@
       <c r="B243" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C243" s="34"/>
+      <c r="C243" s="38"/>
       <c r="D243" s="16"/>
-      <c r="E243" s="24"/>
-      <c r="F243" s="19"/>
-      <c r="G243" s="25"/>
+      <c r="E243" s="32"/>
+      <c r="F243" s="28"/>
+      <c r="G243" s="33"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
@@ -5092,11 +6429,11 @@
       <c r="B244" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C244" s="34"/>
+      <c r="C244" s="38"/>
       <c r="D244" s="16"/>
-      <c r="E244" s="24"/>
-      <c r="F244" s="19"/>
-      <c r="G244" s="25"/>
+      <c r="E244" s="32"/>
+      <c r="F244" s="28"/>
+      <c r="G244" s="33"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
@@ -5105,11 +6442,11 @@
       <c r="B245" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C245" s="34"/>
+      <c r="C245" s="38"/>
       <c r="D245" s="16"/>
-      <c r="E245" s="24"/>
-      <c r="F245" s="19"/>
-      <c r="G245" s="25"/>
+      <c r="E245" s="32"/>
+      <c r="F245" s="28"/>
+      <c r="G245" s="33"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
@@ -5118,11 +6455,11 @@
       <c r="B246" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C246" s="34"/>
+      <c r="C246" s="38"/>
       <c r="D246" s="16"/>
-      <c r="E246" s="24"/>
-      <c r="F246" s="19"/>
-      <c r="G246" s="25"/>
+      <c r="E246" s="32"/>
+      <c r="F246" s="28"/>
+      <c r="G246" s="33"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
@@ -5131,11 +6468,11 @@
       <c r="B247" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C247" s="35"/>
+      <c r="C247" s="39"/>
       <c r="D247" s="16"/>
-      <c r="E247" s="24"/>
-      <c r="F247" s="19"/>
-      <c r="G247" s="25"/>
+      <c r="E247" s="32"/>
+      <c r="F247" s="28"/>
+      <c r="G247" s="33"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
@@ -5146,61 +6483,61 @@
       </c>
       <c r="C248" s="16"/>
       <c r="D248" s="16"/>
-      <c r="E248" s="24"/>
-      <c r="F248" s="19"/>
-      <c r="G248" s="25"/>
+      <c r="E248" s="32"/>
+      <c r="F248" s="28"/>
+      <c r="G248" s="33"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C249" s="16"/>
       <c r="D249" s="16"/>
-      <c r="E249" s="24"/>
-      <c r="F249" s="19"/>
-      <c r="G249" s="25"/>
+      <c r="E249" s="32"/>
+      <c r="F249" s="28"/>
+      <c r="G249" s="33"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" s="46" t="s">
-        <v>178</v>
+      <c r="B250" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="C250" s="16"/>
       <c r="D250" s="16"/>
-      <c r="E250" s="24"/>
-      <c r="F250" s="19"/>
-      <c r="G250" s="25"/>
+      <c r="E250" s="32"/>
+      <c r="F250" s="28"/>
+      <c r="G250" s="33"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C251" s="16"/>
       <c r="D251" s="16"/>
-      <c r="E251" s="24"/>
-      <c r="F251" s="19"/>
-      <c r="G251" s="25"/>
+      <c r="E251" s="32"/>
+      <c r="F251" s="28"/>
+      <c r="G251" s="33"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C252" s="16"/>
       <c r="D252" s="16"/>
-      <c r="E252" s="24"/>
-      <c r="F252" s="19"/>
-      <c r="G252" s="25"/>
+      <c r="E252" s="32"/>
+      <c r="F252" s="28"/>
+      <c r="G252" s="33"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
@@ -5211,48 +6548,48 @@
       </c>
       <c r="C253" s="16"/>
       <c r="D253" s="16"/>
-      <c r="E253" s="24"/>
-      <c r="F253" s="19"/>
-      <c r="G253" s="25"/>
+      <c r="E253" s="32"/>
+      <c r="F253" s="28"/>
+      <c r="G253" s="33"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C254" s="16"/>
       <c r="D254" s="16"/>
-      <c r="E254" s="24"/>
-      <c r="F254" s="19"/>
-      <c r="G254" s="25"/>
+      <c r="E254" s="32"/>
+      <c r="F254" s="28"/>
+      <c r="G254" s="33"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C255" s="16"/>
       <c r="D255" s="16"/>
-      <c r="E255" s="24"/>
-      <c r="F255" s="19"/>
-      <c r="G255" s="25"/>
+      <c r="E255" s="32"/>
+      <c r="F255" s="28"/>
+      <c r="G255" s="33"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C256" s="16"/>
       <c r="D256" s="16"/>
-      <c r="E256" s="24"/>
-      <c r="F256" s="19"/>
-      <c r="G256" s="25"/>
+      <c r="E256" s="32"/>
+      <c r="F256" s="28"/>
+      <c r="G256" s="33"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
@@ -5263,113 +6600,113 @@
       </c>
       <c r="C257" s="16"/>
       <c r="D257" s="16"/>
-      <c r="E257" s="24"/>
-      <c r="F257" s="19"/>
-      <c r="G257" s="25"/>
+      <c r="E257" s="32"/>
+      <c r="F257" s="28"/>
+      <c r="G257" s="33"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C258" s="16"/>
       <c r="D258" s="16"/>
-      <c r="E258" s="24"/>
-      <c r="F258" s="19"/>
-      <c r="G258" s="25"/>
+      <c r="E258" s="32"/>
+      <c r="F258" s="28"/>
+      <c r="G258" s="33"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C259" s="16"/>
       <c r="D259" s="16"/>
-      <c r="E259" s="24"/>
-      <c r="F259" s="19"/>
-      <c r="G259" s="25"/>
+      <c r="E259" s="32"/>
+      <c r="F259" s="28"/>
+      <c r="G259" s="33"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C260" s="16"/>
       <c r="D260" s="16"/>
-      <c r="E260" s="24"/>
-      <c r="F260" s="19"/>
-      <c r="G260" s="25"/>
+      <c r="E260" s="32"/>
+      <c r="F260" s="28"/>
+      <c r="G260" s="33"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C261" s="16"/>
       <c r="D261" s="16"/>
-      <c r="E261" s="24"/>
-      <c r="F261" s="19"/>
-      <c r="G261" s="25"/>
+      <c r="E261" s="32"/>
+      <c r="F261" s="28"/>
+      <c r="G261" s="33"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C262" s="16"/>
       <c r="D262" s="16"/>
-      <c r="E262" s="24"/>
-      <c r="F262" s="19"/>
-      <c r="G262" s="25"/>
+      <c r="E262" s="32"/>
+      <c r="F262" s="28"/>
+      <c r="G262" s="33"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C263" s="16"/>
       <c r="D263" s="16"/>
-      <c r="E263" s="24"/>
-      <c r="F263" s="19"/>
-      <c r="G263" s="25"/>
+      <c r="E263" s="32"/>
+      <c r="F263" s="28"/>
+      <c r="G263" s="33"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C264" s="16"/>
       <c r="D264" s="16"/>
-      <c r="E264" s="24"/>
-      <c r="F264" s="19"/>
-      <c r="G264" s="25"/>
+      <c r="E264" s="32"/>
+      <c r="F264" s="28"/>
+      <c r="G264" s="33"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C265" s="16"/>
       <c r="D265" s="16"/>
-      <c r="E265" s="24"/>
-      <c r="F265" s="19"/>
-      <c r="G265" s="25"/>
+      <c r="E265" s="32"/>
+      <c r="F265" s="28"/>
+      <c r="G265" s="33"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
@@ -5380,61 +6717,61 @@
       </c>
       <c r="C266" s="16"/>
       <c r="D266" s="16"/>
-      <c r="E266" s="24"/>
-      <c r="F266" s="19"/>
-      <c r="G266" s="25"/>
+      <c r="E266" s="32"/>
+      <c r="F266" s="28"/>
+      <c r="G266" s="33"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C267" s="16"/>
       <c r="D267" s="16"/>
-      <c r="E267" s="24"/>
-      <c r="F267" s="19"/>
-      <c r="G267" s="25"/>
+      <c r="E267" s="32"/>
+      <c r="F267" s="28"/>
+      <c r="G267" s="33"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C268" s="16"/>
       <c r="D268" s="16"/>
-      <c r="E268" s="24"/>
-      <c r="F268" s="19"/>
-      <c r="G268" s="25"/>
+      <c r="E268" s="32"/>
+      <c r="F268" s="28"/>
+      <c r="G268" s="33"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C269" s="16"/>
       <c r="D269" s="16"/>
-      <c r="E269" s="24"/>
-      <c r="F269" s="19"/>
-      <c r="G269" s="25"/>
+      <c r="E269" s="32"/>
+      <c r="F269" s="28"/>
+      <c r="G269" s="33"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C270" s="16"/>
       <c r="D270" s="16"/>
-      <c r="E270" s="24"/>
-      <c r="F270" s="19"/>
-      <c r="G270" s="25"/>
+      <c r="E270" s="32"/>
+      <c r="F270" s="28"/>
+      <c r="G270" s="33"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
@@ -5445,74 +6782,74 @@
       </c>
       <c r="C271" s="16"/>
       <c r="D271" s="16"/>
-      <c r="E271" s="24"/>
-      <c r="F271" s="19"/>
-      <c r="G271" s="25"/>
+      <c r="E271" s="32"/>
+      <c r="F271" s="28"/>
+      <c r="G271" s="33"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C272" s="16"/>
       <c r="D272" s="16"/>
-      <c r="E272" s="24"/>
-      <c r="F272" s="19"/>
-      <c r="G272" s="25"/>
+      <c r="E272" s="32"/>
+      <c r="F272" s="28"/>
+      <c r="G272" s="33"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C273" s="16"/>
       <c r="D273" s="16"/>
-      <c r="E273" s="24"/>
-      <c r="F273" s="19"/>
-      <c r="G273" s="25"/>
+      <c r="E273" s="32"/>
+      <c r="F273" s="28"/>
+      <c r="G273" s="33"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C274" s="16"/>
       <c r="D274" s="16"/>
-      <c r="E274" s="24"/>
-      <c r="F274" s="19"/>
-      <c r="G274" s="25"/>
+      <c r="E274" s="32"/>
+      <c r="F274" s="28"/>
+      <c r="G274" s="33"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C275" s="16"/>
       <c r="D275" s="16"/>
-      <c r="E275" s="24"/>
-      <c r="F275" s="19"/>
-      <c r="G275" s="25"/>
+      <c r="E275" s="32"/>
+      <c r="F275" s="28"/>
+      <c r="G275" s="33"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C276" s="16"/>
       <c r="D276" s="16"/>
-      <c r="E276" s="24"/>
-      <c r="F276" s="19"/>
-      <c r="G276" s="25"/>
+      <c r="E276" s="32"/>
+      <c r="F276" s="28"/>
+      <c r="G276" s="33"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
@@ -5521,13 +6858,13 @@
       <c r="B277" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C277" s="36" t="s">
+      <c r="C277" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D277" s="16"/>
-      <c r="E277" s="24"/>
-      <c r="F277" s="19"/>
-      <c r="G277" s="25"/>
+      <c r="E277" s="32"/>
+      <c r="F277" s="28"/>
+      <c r="G277" s="33"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
@@ -5536,11 +6873,11 @@
       <c r="B278" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C278" s="34"/>
+      <c r="C278" s="38"/>
       <c r="D278" s="16"/>
-      <c r="E278" s="24"/>
-      <c r="F278" s="19"/>
-      <c r="G278" s="25"/>
+      <c r="E278" s="32"/>
+      <c r="F278" s="28"/>
+      <c r="G278" s="33"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
@@ -5549,11 +6886,11 @@
       <c r="B279" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C279" s="34"/>
+      <c r="C279" s="38"/>
       <c r="D279" s="16"/>
-      <c r="E279" s="24"/>
-      <c r="F279" s="19"/>
-      <c r="G279" s="25"/>
+      <c r="E279" s="32"/>
+      <c r="F279" s="28"/>
+      <c r="G279" s="33"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
@@ -5562,11 +6899,11 @@
       <c r="B280" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C280" s="34"/>
+      <c r="C280" s="38"/>
       <c r="D280" s="16"/>
-      <c r="E280" s="24"/>
-      <c r="F280" s="19"/>
-      <c r="G280" s="25"/>
+      <c r="E280" s="32"/>
+      <c r="F280" s="28"/>
+      <c r="G280" s="33"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
@@ -5575,11 +6912,11 @@
       <c r="B281" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C281" s="34"/>
+      <c r="C281" s="38"/>
       <c r="D281" s="16"/>
-      <c r="E281" s="24"/>
-      <c r="F281" s="19"/>
-      <c r="G281" s="25"/>
+      <c r="E281" s="32"/>
+      <c r="F281" s="28"/>
+      <c r="G281" s="33"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
@@ -5588,11 +6925,11 @@
       <c r="B282" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C282" s="34"/>
+      <c r="C282" s="38"/>
       <c r="D282" s="16"/>
-      <c r="E282" s="24"/>
-      <c r="F282" s="19"/>
-      <c r="G282" s="25"/>
+      <c r="E282" s="32"/>
+      <c r="F282" s="28"/>
+      <c r="G282" s="33"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
@@ -5601,11 +6938,11 @@
       <c r="B283" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C283" s="34"/>
+      <c r="C283" s="38"/>
       <c r="D283" s="16"/>
-      <c r="E283" s="24"/>
-      <c r="F283" s="19"/>
-      <c r="G283" s="25"/>
+      <c r="E283" s="32"/>
+      <c r="F283" s="28"/>
+      <c r="G283" s="33"/>
     </row>
     <row r="284" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
@@ -5614,110 +6951,110 @@
       <c r="B284" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C284" s="34"/>
+      <c r="C284" s="38"/>
       <c r="D284" s="16"/>
-      <c r="E284" s="24"/>
-      <c r="F284" s="19"/>
-      <c r="G284" s="25"/>
+      <c r="E284" s="32"/>
+      <c r="F284" s="28"/>
+      <c r="G284" s="33"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="C285" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D285" s="45"/>
+      <c r="B285" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C285" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D285" s="24"/>
       <c r="E285" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="F285" s="22"/>
-      <c r="G285" s="23"/>
+        <v>204</v>
+      </c>
+      <c r="F285" s="30"/>
+      <c r="G285" s="31"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C286" s="19"/>
+        <v>199</v>
+      </c>
+      <c r="C286" s="28"/>
       <c r="D286" s="16"/>
-      <c r="E286" s="24"/>
-      <c r="F286" s="19"/>
-      <c r="G286" s="25"/>
+      <c r="E286" s="32"/>
+      <c r="F286" s="28"/>
+      <c r="G286" s="33"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C287" s="19" t="s">
-        <v>205</v>
+        <v>198</v>
+      </c>
+      <c r="C287" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="D287" s="16"/>
-      <c r="E287" s="24"/>
-      <c r="F287" s="19"/>
-      <c r="G287" s="25"/>
+      <c r="E287" s="32"/>
+      <c r="F287" s="28"/>
+      <c r="G287" s="33"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C288" s="19"/>
+        <v>200</v>
+      </c>
+      <c r="C288" s="28"/>
       <c r="D288" s="16"/>
-      <c r="E288" s="24"/>
-      <c r="F288" s="19"/>
-      <c r="G288" s="25"/>
+      <c r="E288" s="32"/>
+      <c r="F288" s="28"/>
+      <c r="G288" s="33"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C289" s="19" t="s">
-        <v>207</v>
+        <v>57</v>
+      </c>
+      <c r="C289" s="28" t="s">
+        <v>203</v>
       </c>
       <c r="D289" s="16"/>
-      <c r="E289" s="24"/>
-      <c r="F289" s="19"/>
-      <c r="G289" s="25"/>
+      <c r="E289" s="32"/>
+      <c r="F289" s="28"/>
+      <c r="G289" s="33"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C290" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="C290" s="28"/>
       <c r="D290" s="16"/>
-      <c r="E290" s="24"/>
-      <c r="F290" s="19"/>
-      <c r="G290" s="25"/>
+      <c r="E290" s="32"/>
+      <c r="F290" s="28"/>
+      <c r="G290" s="33"/>
     </row>
     <row r="291" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C291" s="44"/>
-      <c r="D291" s="44"/>
-      <c r="E291" s="26"/>
-      <c r="F291" s="27"/>
-      <c r="G291" s="28"/>
+        <v>89</v>
+      </c>
+      <c r="C291" s="23"/>
+      <c r="D291" s="23"/>
+      <c r="E291" s="34"/>
+      <c r="F291" s="35"/>
+      <c r="G291" s="36"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
@@ -13071,13 +14408,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="E285:G291"/>
-    <mergeCell ref="C240:C247"/>
-    <mergeCell ref="C277:C284"/>
-    <mergeCell ref="E240:G284"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="C287:C288"/>
     <mergeCell ref="C2:G7"/>
     <mergeCell ref="C8:G33"/>
     <mergeCell ref="C96:C103"/>
@@ -13091,6 +14421,13 @@
     <mergeCell ref="C65:C72"/>
     <mergeCell ref="C88:C95"/>
     <mergeCell ref="E65:G95"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="E285:G291"/>
+    <mergeCell ref="C240:C247"/>
+    <mergeCell ref="C277:C284"/>
+    <mergeCell ref="E240:G284"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="C287:C288"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13100,14 +14437,2339 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5428F262-191A-4021-9B12-CEBA96066F04}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A86" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>350</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>351</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>354</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>355</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>357</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>359</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>360</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>361</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>365</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>366</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>367</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>368</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>369</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>370</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>371</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>372</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>373</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>374</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>375</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>376</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>377</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>378</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>379</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>380</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>381</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>382</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>383</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>384</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>385</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>386</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>387</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>388</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>389</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>390</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>391</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>392</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>393</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>394</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>395</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>396</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>397</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>398</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>399</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>400</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>401</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>402</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>403</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>404</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>405</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>406</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>407</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>408</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>409</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>410</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>411</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>412</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>413</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>414</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>415</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>416</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>417</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>418</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>419</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>420</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>421</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>422</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>423</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>424</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>425</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>426</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>427</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>428</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>429</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>430</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>431</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>432</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>433</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>434</v>
+      </c>
+      <c r="B112" s="27" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>435</v>
+      </c>
+      <c r="B113" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>436</v>
+      </c>
+      <c r="B114" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>437</v>
+      </c>
+      <c r="B115" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>438</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>439</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>440</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>441</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>442</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>443</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>444</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>445</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>446</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>447</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>448</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>449</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>450</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>451</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>452</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>453</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>454</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>455</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>456</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>457</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>458</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>459</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>460</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>461</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>462</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>463</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>464</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>465</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>466</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>467</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>468</v>
+      </c>
+      <c r="B146" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>469</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>470</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>471</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>472</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>473</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>474</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>475</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>476</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>477</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>478</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>479</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>480</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>481</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>482</v>
+      </c>
+      <c r="B160" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>483</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>484</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>485</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>486</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>487</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>488</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>489</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>490</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>491</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>492</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>493</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>494</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>495</v>
+      </c>
+      <c r="B173" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>496</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>497</v>
+      </c>
+      <c r="B175" s="27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>498</v>
+      </c>
+      <c r="B176" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>499</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>500</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>501</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>502</v>
+      </c>
+      <c r="B180" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>503</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>504</v>
+      </c>
+      <c r="B182" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>505</v>
+      </c>
+      <c r="B183" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>506</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>507</v>
+      </c>
+      <c r="B185" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>508</v>
+      </c>
+      <c r="B186" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>509</v>
+      </c>
+      <c r="B187" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>510</v>
+      </c>
+      <c r="B188" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>511</v>
+      </c>
+      <c r="B189" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>512</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>513</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>514</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>515</v>
+      </c>
+      <c r="B193" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>516</v>
+      </c>
+      <c r="B194" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>517</v>
+      </c>
+      <c r="B195" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>518</v>
+      </c>
+      <c r="B196" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>519</v>
+      </c>
+      <c r="B197" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>520</v>
+      </c>
+      <c r="B198" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>521</v>
+      </c>
+      <c r="B199" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>522</v>
+      </c>
+      <c r="B200" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>523</v>
+      </c>
+      <c r="B201" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>524</v>
+      </c>
+      <c r="B202" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>525</v>
+      </c>
+      <c r="B203" s="27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>526</v>
+      </c>
+      <c r="B204" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>527</v>
+      </c>
+      <c r="B205" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>528</v>
+      </c>
+      <c r="B206" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>529</v>
+      </c>
+      <c r="B207" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>530</v>
+      </c>
+      <c r="B208" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>531</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>532</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>533</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>534</v>
+      </c>
+      <c r="B212" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>535</v>
+      </c>
+      <c r="B213" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>536</v>
+      </c>
+      <c r="B214" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>537</v>
+      </c>
+      <c r="B215" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>538</v>
+      </c>
+      <c r="B216" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>539</v>
+      </c>
+      <c r="B217" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>540</v>
+      </c>
+      <c r="B218" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>541</v>
+      </c>
+      <c r="B219" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>542</v>
+      </c>
+      <c r="B220" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>543</v>
+      </c>
+      <c r="B221" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>544</v>
+      </c>
+      <c r="B222" s="27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>545</v>
+      </c>
+      <c r="B223" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>546</v>
+      </c>
+      <c r="B224" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>547</v>
+      </c>
+      <c r="B225" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>548</v>
+      </c>
+      <c r="B226" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>549</v>
+      </c>
+      <c r="B227" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>550</v>
+      </c>
+      <c r="B228" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>551</v>
+      </c>
+      <c r="B229" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>552</v>
+      </c>
+      <c r="B230" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>553</v>
+      </c>
+      <c r="B231" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>554</v>
+      </c>
+      <c r="B232" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>555</v>
+      </c>
+      <c r="B233" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>556</v>
+      </c>
+      <c r="B234" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>557</v>
+      </c>
+      <c r="B235" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>558</v>
+      </c>
+      <c r="B236" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>559</v>
+      </c>
+      <c r="B237" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>560</v>
+      </c>
+      <c r="B238" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>561</v>
+      </c>
+      <c r="B239" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>562</v>
+      </c>
+      <c r="B240" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>563</v>
+      </c>
+      <c r="B241" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>564</v>
+      </c>
+      <c r="B242" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>565</v>
+      </c>
+      <c r="B243" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>566</v>
+      </c>
+      <c r="B244" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>567</v>
+      </c>
+      <c r="B245" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>568</v>
+      </c>
+      <c r="B246" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>569</v>
+      </c>
+      <c r="B247" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>570</v>
+      </c>
+      <c r="B248" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>571</v>
+      </c>
+      <c r="B249" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>572</v>
+      </c>
+      <c r="B250" s="27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>573</v>
+      </c>
+      <c r="B251" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>574</v>
+      </c>
+      <c r="B252" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>575</v>
+      </c>
+      <c r="B253" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>576</v>
+      </c>
+      <c r="B254" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>577</v>
+      </c>
+      <c r="B255" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>578</v>
+      </c>
+      <c r="B256" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>579</v>
+      </c>
+      <c r="B257" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>580</v>
+      </c>
+      <c r="B258" s="27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>581</v>
+      </c>
+      <c r="B259" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>582</v>
+      </c>
+      <c r="B260" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>583</v>
+      </c>
+      <c r="B261" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>584</v>
+      </c>
+      <c r="B262" s="27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>585</v>
+      </c>
+      <c r="B263" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>586</v>
+      </c>
+      <c r="B264" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>587</v>
+      </c>
+      <c r="B265" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>588</v>
+      </c>
+      <c r="B266" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>589</v>
+      </c>
+      <c r="B267" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>590</v>
+      </c>
+      <c r="B268" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>591</v>
+      </c>
+      <c r="B269" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>592</v>
+      </c>
+      <c r="B270" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>593</v>
+      </c>
+      <c r="B271" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>594</v>
+      </c>
+      <c r="B272" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>595</v>
+      </c>
+      <c r="B273" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>596</v>
+      </c>
+      <c r="B274" s="27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>597</v>
+      </c>
+      <c r="B275" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>598</v>
+      </c>
+      <c r="B276" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>599</v>
+      </c>
+      <c r="B277" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>600</v>
+      </c>
+      <c r="B278" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>601</v>
+      </c>
+      <c r="B279" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>602</v>
+      </c>
+      <c r="B280" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>603</v>
+      </c>
+      <c r="B281" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>604</v>
+      </c>
+      <c r="B282" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>605</v>
+      </c>
+      <c r="B283" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>606</v>
+      </c>
+      <c r="B284" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>607</v>
+      </c>
+      <c r="B285" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>608</v>
+      </c>
+      <c r="B286" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>609</v>
+      </c>
+      <c r="B287" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>610</v>
+      </c>
+      <c r="B288" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>611</v>
+      </c>
+      <c r="B289" s="27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>612</v>
+      </c>
+      <c r="B290" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestProgram2(Assembly-Code).xlsx
+++ b/TestProgram2(Assembly-Code).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QiTianYi\Desktop\Advanced Computer Architecture\CSCI6461ComputerArchitecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A297D50D-5F68-4974-B200-4A1DA15BAE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D72BD7-C49C-49A2-BAFD-6402AD453FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5181C135-F803-4CA6-AFB1-3DD996B2224A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="340">
   <si>
     <t>Instr (Or Immediate number)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,34 +993,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000000011111010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0000001110000100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000000011011001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0000000000100000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000000010110111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000010001110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000001100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0000000000000001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1473,7 +1453,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000000100101000</t>
+    <t>0000000001100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000010010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000010111001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000011011011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000011111100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000100101010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1847,6 +1847,45 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1859,55 +1898,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1929,6 +1926,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2245,11 +2245,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72887D96-2685-464A-84B6-218C724B7504}">
-  <dimension ref="A1:I304"/>
+  <dimension ref="A1:I306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="33" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N67" sqref="N67"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="33" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2262,7 +2262,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
@@ -2293,13 +2293,13 @@
       <c r="D2" s="3">
         <v>2000</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -2315,11 +2315,11 @@
       <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2335,11 +2335,11 @@
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -2355,11 +2355,11 @@
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -2375,11 +2375,11 @@
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -2395,11 +2395,11 @@
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -2410,18 +2410,18 @@
         <v>000000000110</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -2432,16 +2432,16 @@
         <v>000000000111</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -2457,11 +2457,11 @@
       <c r="D10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -2477,11 +2477,11 @@
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2495,11 +2495,11 @@
         <v>218</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2513,13 +2513,13 @@
         <v>218</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2531,15 +2531,15 @@
         <v>339</v>
       </c>
       <c r="D14" s="6">
-        <v>296</v>
-      </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2548,18 +2548,18 @@
         <v>000000001101</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>219</v>
+        <v>338</v>
       </c>
       <c r="D15" s="7">
-        <v>250</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2568,18 +2568,18 @@
         <v>000000001110</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D16" s="12">
         <v>900</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2593,13 +2593,13 @@
       <c r="D17" s="12">
         <v>0</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2608,18 +2608,18 @@
         <v>000000010000</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
       <c r="D18" s="12">
-        <v>217</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2628,18 +2628,18 @@
         <v>000000010001</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D19" s="12">
         <v>32</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2648,18 +2648,18 @@
         <v>000000010010</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="D20" s="12">
-        <v>183</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2668,18 +2668,18 @@
         <v>000000010011</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>224</v>
+        <v>335</v>
       </c>
       <c r="D21" s="2">
-        <v>142</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2693,13 +2693,13 @@
       <c r="D22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2713,13 +2713,13 @@
       <c r="D23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2728,18 +2728,18 @@
         <v>000000010110</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="D24" s="2">
-        <v>96</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2753,13 +2753,13 @@
       <c r="D25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2773,13 +2773,13 @@
       <c r="D26" s="12">
         <v>2000</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2788,18 +2788,18 @@
         <v>000000011001</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2808,18 +2808,18 @@
         <v>000000011010</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2828,18 +2828,18 @@
         <v>000000011011</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D29" s="12">
         <v>64</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2853,13 +2853,13 @@
       <c r="D30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2868,18 +2868,18 @@
         <v>000000011101</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D31" s="2">
         <v>40</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2893,13 +2893,13 @@
       <c r="D32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2908,16 +2908,16 @@
         <v>000000011111</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D33" s="2">
         <v>1000</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -2928,20 +2928,20 @@
         <v>000000100000</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="30" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="24"/>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="49"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -2952,16 +2952,16 @@
         <v>000000100001</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="51"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="50"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -2972,16 +2972,16 @@
         <v>000000100010</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="51"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="50"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -2992,16 +2992,16 @@
         <v>000000100011</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="51"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="50"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -3012,16 +3012,16 @@
         <v>000000100100</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="51"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="50"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -3032,16 +3032,16 @@
         <v>000000100101</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="51"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="50"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -3052,16 +3052,16 @@
         <v>000000100110</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="51"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="50"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -3072,16 +3072,16 @@
         <v>000000100111</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="44"/>
+      <c r="E41" s="32"/>
       <c r="F41" s="22"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="51"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="50"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -3092,7 +3092,7 @@
         <v>000000101000</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>36</v>
@@ -3101,9 +3101,9 @@
         <v>38</v>
       </c>
       <c r="F42" s="14"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="51"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="50"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -3114,7 +3114,7 @@
         <v>000000101001</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>37</v>
@@ -3123,9 +3123,9 @@
         <v>39</v>
       </c>
       <c r="F43" s="14"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="51"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="50"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -3136,7 +3136,7 @@
         <v>000000101010</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>5</v>
@@ -3145,9 +3145,9 @@
         <v>26</v>
       </c>
       <c r="F44" s="14"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="51"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="50"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -3158,7 +3158,7 @@
         <v>000000101011</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>42</v>
@@ -3167,9 +3167,9 @@
         <v>27</v>
       </c>
       <c r="F45" s="14"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="51"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="50"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -3180,16 +3180,16 @@
         <v>000000101100</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="51"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="50"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
@@ -3200,7 +3200,7 @@
         <v>000000101101</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>28</v>
@@ -3209,9 +3209,9 @@
         <v>31</v>
       </c>
       <c r="F47" s="14"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="51"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="50"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
@@ -3222,7 +3222,7 @@
         <v>000000101110</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>29</v>
@@ -3231,9 +3231,9 @@
         <v>32</v>
       </c>
       <c r="F48" s="14"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="51"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="50"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
@@ -3244,7 +3244,7 @@
         <v>000000101111</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>19</v>
@@ -3253,9 +3253,9 @@
         <v>33</v>
       </c>
       <c r="F49" s="14"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="51"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="50"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
@@ -3266,16 +3266,16 @@
         <v>000000110000</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="51"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="50"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
@@ -3286,7 +3286,7 @@
         <v>000000110001</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>180</v>
@@ -3295,9 +3295,9 @@
         <v>179</v>
       </c>
       <c r="F51" s="14"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="51"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="50"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
@@ -3308,7 +3308,7 @@
         <v>000000110010</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>34</v>
@@ -3317,9 +3317,9 @@
         <v>76</v>
       </c>
       <c r="F52" s="14"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="51"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="50"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
@@ -3330,16 +3330,16 @@
         <v>000000110011</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="51"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="50"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -3350,16 +3350,16 @@
         <v>000000110100</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="51"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="50"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
@@ -3370,7 +3370,7 @@
         <v>000000110101</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>42</v>
@@ -3379,9 +3379,9 @@
         <v>41</v>
       </c>
       <c r="F55" s="14"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="51"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="50"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
@@ -3392,16 +3392,16 @@
         <v>000000110110</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="51"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="50"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
@@ -3412,18 +3412,18 @@
         <v>000000110111</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="37" t="s">
         <v>134</v>
       </c>
       <c r="F57" s="25"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="51"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="50"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
@@ -3434,16 +3434,16 @@
         <v>000000111000</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="31"/>
       <c r="F58" s="22"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="51"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="50"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
@@ -3454,16 +3454,16 @@
         <v>000000111001</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="31"/>
       <c r="F59" s="22"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="51"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="50"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
@@ -3474,16 +3474,16 @@
         <v>000000111010</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="31"/>
       <c r="F60" s="22"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="51"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="50"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
@@ -3494,16 +3494,16 @@
         <v>000000111011</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="31"/>
       <c r="F61" s="22"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="51"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="50"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
@@ -3514,16 +3514,16 @@
         <v>000000111100</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="31"/>
       <c r="F62" s="22"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="51"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="50"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
@@ -3534,16 +3534,16 @@
         <v>000000111101</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="22"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="51"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="50"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -3554,16 +3554,16 @@
         <v>000000111110</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="34"/>
+      <c r="E64" s="38"/>
       <c r="F64" s="23"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="51"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="50"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -3574,16 +3574,16 @@
         <v>000000111111</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="54"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="53"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
@@ -3594,40 +3594,40 @@
         <v>000001000000</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="30" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="24"/>
-      <c r="G66" s="27" t="s">
+      <c r="G66" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H66" s="28"/>
-      <c r="I66" s="29"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="42"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f t="shared" ref="B67:B130" si="1">TEXT(DEC2BIN(A67),"000000000000")</f>
+        <f t="shared" ref="B67:B132" si="1">TEXT(DEC2BIN(A67),"000000000000")</f>
         <v>000001000001</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="31"/>
       <c r="F67" s="22"/>
-      <c r="G67" s="30"/>
+      <c r="G67" s="43"/>
       <c r="H67" s="31"/>
-      <c r="I67" s="32"/>
+      <c r="I67" s="44"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
@@ -3638,16 +3638,16 @@
         <v>000001000010</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="31"/>
       <c r="F68" s="22"/>
-      <c r="G68" s="30"/>
+      <c r="G68" s="43"/>
       <c r="H68" s="31"/>
-      <c r="I68" s="32"/>
+      <c r="I68" s="44"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
@@ -3658,16 +3658,16 @@
         <v>000001000011</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="31"/>
       <c r="F69" s="22"/>
-      <c r="G69" s="30"/>
+      <c r="G69" s="43"/>
       <c r="H69" s="31"/>
-      <c r="I69" s="32"/>
+      <c r="I69" s="44"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
@@ -3678,16 +3678,16 @@
         <v>000001000100</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E70" s="31"/>
       <c r="F70" s="22"/>
-      <c r="G70" s="30"/>
+      <c r="G70" s="43"/>
       <c r="H70" s="31"/>
-      <c r="I70" s="32"/>
+      <c r="I70" s="44"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
@@ -3698,16 +3698,16 @@
         <v>000001000101</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="31"/>
       <c r="F71" s="22"/>
-      <c r="G71" s="30"/>
+      <c r="G71" s="43"/>
       <c r="H71" s="31"/>
-      <c r="I71" s="32"/>
+      <c r="I71" s="44"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
@@ -3718,16 +3718,16 @@
         <v>000001000110</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E72" s="31"/>
       <c r="F72" s="22"/>
-      <c r="G72" s="30"/>
+      <c r="G72" s="43"/>
       <c r="H72" s="31"/>
-      <c r="I72" s="32"/>
+      <c r="I72" s="44"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
@@ -3738,16 +3738,16 @@
         <v>000001000111</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="44"/>
+      <c r="E73" s="32"/>
       <c r="F73" s="22"/>
-      <c r="G73" s="30"/>
+      <c r="G73" s="43"/>
       <c r="H73" s="31"/>
-      <c r="I73" s="32"/>
+      <c r="I73" s="44"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
@@ -3758,7 +3758,7 @@
         <v>000001001000</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>47</v>
@@ -3767,9 +3767,9 @@
         <v>55</v>
       </c>
       <c r="F74" s="14"/>
-      <c r="G74" s="30"/>
+      <c r="G74" s="43"/>
       <c r="H74" s="31"/>
-      <c r="I74" s="32"/>
+      <c r="I74" s="44"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
@@ -3780,7 +3780,7 @@
         <v>000001001001</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>181</v>
@@ -3789,9 +3789,9 @@
         <v>56</v>
       </c>
       <c r="F75" s="14"/>
-      <c r="G75" s="30"/>
+      <c r="G75" s="43"/>
       <c r="H75" s="31"/>
-      <c r="I75" s="32"/>
+      <c r="I75" s="44"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -3802,7 +3802,7 @@
         <v>000001001010</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>50</v>
@@ -3811,9 +3811,9 @@
         <v>57</v>
       </c>
       <c r="F76" s="14"/>
-      <c r="G76" s="30"/>
+      <c r="G76" s="43"/>
       <c r="H76" s="31"/>
-      <c r="I76" s="32"/>
+      <c r="I76" s="44"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
@@ -3824,7 +3824,7 @@
         <v>000001001011</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>54</v>
@@ -3833,9 +3833,9 @@
         <v>51</v>
       </c>
       <c r="F77" s="14"/>
-      <c r="G77" s="30"/>
+      <c r="G77" s="43"/>
       <c r="H77" s="31"/>
-      <c r="I77" s="32"/>
+      <c r="I77" s="44"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
@@ -3846,16 +3846,16 @@
         <v>000001001100</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
-      <c r="G78" s="30"/>
+      <c r="G78" s="43"/>
       <c r="H78" s="31"/>
-      <c r="I78" s="32"/>
+      <c r="I78" s="44"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -3866,7 +3866,7 @@
         <v>000001001101</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>48</v>
@@ -3875,9 +3875,9 @@
         <v>58</v>
       </c>
       <c r="F79" s="14"/>
-      <c r="G79" s="30"/>
+      <c r="G79" s="43"/>
       <c r="H79" s="31"/>
-      <c r="I79" s="32"/>
+      <c r="I79" s="44"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
@@ -3888,16 +3888,16 @@
         <v>000001001110</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
-      <c r="G80" s="30"/>
+      <c r="G80" s="43"/>
       <c r="H80" s="31"/>
-      <c r="I80" s="32"/>
+      <c r="I80" s="44"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
@@ -3908,16 +3908,16 @@
         <v>000001001111</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
-      <c r="G81" s="30"/>
+      <c r="G81" s="43"/>
       <c r="H81" s="31"/>
-      <c r="I81" s="32"/>
+      <c r="I81" s="44"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
@@ -3928,7 +3928,7 @@
         <v>000001010000</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>49</v>
@@ -3937,9 +3937,9 @@
         <v>59</v>
       </c>
       <c r="F82" s="14"/>
-      <c r="G82" s="30"/>
+      <c r="G82" s="43"/>
       <c r="H82" s="31"/>
-      <c r="I82" s="32"/>
+      <c r="I82" s="44"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
@@ -3950,7 +3950,7 @@
         <v>000001010001</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>52</v>
@@ -3959,9 +3959,9 @@
         <v>60</v>
       </c>
       <c r="F83" s="14"/>
-      <c r="G83" s="30"/>
+      <c r="G83" s="43"/>
       <c r="H83" s="31"/>
-      <c r="I83" s="32"/>
+      <c r="I83" s="44"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
@@ -3972,7 +3972,7 @@
         <v>000001010010</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>47</v>
@@ -3981,9 +3981,9 @@
         <v>61</v>
       </c>
       <c r="F84" s="14"/>
-      <c r="G84" s="30"/>
+      <c r="G84" s="43"/>
       <c r="H84" s="31"/>
-      <c r="I84" s="32"/>
+      <c r="I84" s="44"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -3994,16 +3994,16 @@
         <v>000001010011</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
-      <c r="G85" s="30"/>
+      <c r="G85" s="43"/>
       <c r="H85" s="31"/>
-      <c r="I85" s="32"/>
+      <c r="I85" s="44"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -4014,16 +4014,16 @@
         <v>000001010100</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
-      <c r="G86" s="30"/>
+      <c r="G86" s="43"/>
       <c r="H86" s="31"/>
-      <c r="I86" s="32"/>
+      <c r="I86" s="44"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -4034,7 +4034,7 @@
         <v>000001010101</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>54</v>
@@ -4043,9 +4043,9 @@
         <v>62</v>
       </c>
       <c r="F87" s="14"/>
-      <c r="G87" s="30"/>
+      <c r="G87" s="43"/>
       <c r="H87" s="31"/>
-      <c r="I87" s="32"/>
+      <c r="I87" s="44"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -4056,16 +4056,16 @@
         <v>000001010110</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
-      <c r="G88" s="30"/>
+      <c r="G88" s="43"/>
       <c r="H88" s="31"/>
-      <c r="I88" s="32"/>
+      <c r="I88" s="44"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -4076,18 +4076,16 @@
         <v>000001010111</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="F89" s="25"/>
-      <c r="G89" s="30"/>
+        <v>316</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="43"/>
       <c r="H89" s="31"/>
-      <c r="I89" s="32"/>
+      <c r="I89" s="44"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
@@ -4098,16 +4096,16 @@
         <v>000001011000</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="31"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="43"/>
       <c r="H90" s="31"/>
-      <c r="I90" s="32"/>
+      <c r="I90" s="44"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
@@ -4118,16 +4116,18 @@
         <v>000001011001</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="31"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="30"/>
+        <v>230</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F91" s="25"/>
+      <c r="G91" s="43"/>
       <c r="H91" s="31"/>
-      <c r="I91" s="32"/>
+      <c r="I91" s="44"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
@@ -4138,16 +4138,16 @@
         <v>000001011010</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E92" s="31"/>
       <c r="F92" s="22"/>
-      <c r="G92" s="30"/>
+      <c r="G92" s="43"/>
       <c r="H92" s="31"/>
-      <c r="I92" s="32"/>
+      <c r="I92" s="44"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
@@ -4158,16 +4158,16 @@
         <v>000001011011</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="22"/>
-      <c r="G93" s="30"/>
+      <c r="G93" s="43"/>
       <c r="H93" s="31"/>
-      <c r="I93" s="32"/>
+      <c r="I93" s="44"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
@@ -4178,16 +4178,16 @@
         <v>000001011100</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="22"/>
-      <c r="G94" s="30"/>
+      <c r="G94" s="43"/>
       <c r="H94" s="31"/>
-      <c r="I94" s="32"/>
+      <c r="I94" s="44"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -4198,18 +4198,18 @@
         <v>000001011101</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E95" s="31"/>
       <c r="F95" s="22"/>
-      <c r="G95" s="30"/>
+      <c r="G95" s="43"/>
       <c r="H95" s="31"/>
-      <c r="I95" s="32"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="44"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4218,18 +4218,18 @@
         <v>000001011110</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="34"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="30"/>
+        <v>227</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="31"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="43"/>
       <c r="H96" s="31"/>
-      <c r="I96" s="32"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="44"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4238,18 +4238,18 @@
         <v>000001011111</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E97" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="E97" s="31"/>
       <c r="F97" s="22"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="35"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G97" s="43"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="44"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4258,22 +4258,18 @@
         <v>000001100000</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="24"/>
-      <c r="G98" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="H98" s="28"/>
-      <c r="I98" s="29"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="38"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="44"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4282,16 +4278,16 @@
         <v>000001100001</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="31"/>
+        <v>196</v>
+      </c>
+      <c r="E99" s="22"/>
       <c r="F99" s="22"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="32"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="46"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -4302,16 +4298,20 @@
         <v>000001100010</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="31"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="32"/>
+        <v>227</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="24"/>
+      <c r="G100" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="H100" s="41"/>
+      <c r="I100" s="42"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
@@ -4322,16 +4322,16 @@
         <v>000001100011</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E101" s="31"/>
       <c r="F101" s="22"/>
-      <c r="G101" s="30"/>
+      <c r="G101" s="43"/>
       <c r="H101" s="31"/>
-      <c r="I101" s="32"/>
+      <c r="I101" s="44"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -4342,16 +4342,16 @@
         <v>000001100100</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E102" s="31"/>
       <c r="F102" s="22"/>
-      <c r="G102" s="30"/>
+      <c r="G102" s="43"/>
       <c r="H102" s="31"/>
-      <c r="I102" s="32"/>
+      <c r="I102" s="44"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
@@ -4362,16 +4362,16 @@
         <v>000001100101</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E103" s="31"/>
       <c r="F103" s="22"/>
-      <c r="G103" s="30"/>
+      <c r="G103" s="43"/>
       <c r="H103" s="31"/>
-      <c r="I103" s="32"/>
+      <c r="I103" s="44"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -4382,16 +4382,16 @@
         <v>000001100110</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>22</v>
+        <v>231</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="22"/>
-      <c r="G104" s="30"/>
+      <c r="G104" s="43"/>
       <c r="H104" s="31"/>
-      <c r="I104" s="32"/>
+      <c r="I104" s="44"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -4402,16 +4402,16 @@
         <v>000001100111</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="44"/>
+        <v>232</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="31"/>
       <c r="F105" s="22"/>
-      <c r="G105" s="30"/>
+      <c r="G105" s="43"/>
       <c r="H105" s="31"/>
-      <c r="I105" s="32"/>
+      <c r="I105" s="44"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -4422,20 +4422,16 @@
         <v>000001101000</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F106" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="G106" s="30"/>
+        <v>233</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="31"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="43"/>
       <c r="H106" s="31"/>
-      <c r="I106" s="32"/>
+      <c r="I106" s="44"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
@@ -4446,18 +4442,16 @@
         <v>000001101001</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F107" s="31"/>
-      <c r="G107" s="30"/>
+        <v>234</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="32"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="43"/>
       <c r="H107" s="31"/>
-      <c r="I107" s="32"/>
+      <c r="I107" s="44"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -4468,18 +4462,20 @@
         <v>000001101010</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F108" s="31"/>
-      <c r="G108" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G108" s="43"/>
       <c r="H108" s="31"/>
-      <c r="I108" s="32"/>
+      <c r="I108" s="44"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -4490,18 +4486,18 @@
         <v>000001101011</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F109" s="31"/>
-      <c r="G109" s="30"/>
+      <c r="G109" s="43"/>
       <c r="H109" s="31"/>
-      <c r="I109" s="32"/>
+      <c r="I109" s="44"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
@@ -4512,16 +4508,18 @@
         <v>000001101100</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E110" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F110" s="31"/>
-      <c r="G110" s="30"/>
+      <c r="G110" s="43"/>
       <c r="H110" s="31"/>
-      <c r="I110" s="32"/>
+      <c r="I110" s="44"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -4532,18 +4530,18 @@
         <v>000001101101</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F111" s="31"/>
-      <c r="G111" s="30"/>
+      <c r="G111" s="43"/>
       <c r="H111" s="31"/>
-      <c r="I111" s="32"/>
+      <c r="I111" s="44"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -4554,18 +4552,16 @@
         <v>000001101110</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>73</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E112" s="14"/>
       <c r="F112" s="31"/>
-      <c r="G112" s="30"/>
+      <c r="G112" s="43"/>
       <c r="H112" s="31"/>
-      <c r="I112" s="32"/>
+      <c r="I112" s="44"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
@@ -4576,18 +4572,18 @@
         <v>000001101111</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F113" s="31"/>
-      <c r="G113" s="30"/>
+      <c r="G113" s="43"/>
       <c r="H113" s="31"/>
-      <c r="I113" s="32"/>
+      <c r="I113" s="44"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
@@ -4598,16 +4594,18 @@
         <v>000001110000</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E114" s="14"/>
+        <v>72</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="F114" s="31"/>
-      <c r="G114" s="30"/>
+      <c r="G114" s="43"/>
       <c r="H114" s="31"/>
-      <c r="I114" s="32"/>
+      <c r="I114" s="44"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
@@ -4618,18 +4616,18 @@
         <v>000001110001</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="F115" s="31"/>
-      <c r="G115" s="30"/>
+      <c r="G115" s="43"/>
       <c r="H115" s="31"/>
-      <c r="I115" s="32"/>
+      <c r="I115" s="44"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
@@ -4640,18 +4638,16 @@
         <v>000001110010</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>77</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E116" s="14"/>
       <c r="F116" s="31"/>
-      <c r="G116" s="30"/>
+      <c r="G116" s="43"/>
       <c r="H116" s="31"/>
-      <c r="I116" s="32"/>
+      <c r="I116" s="44"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
@@ -4662,16 +4658,18 @@
         <v>000001110011</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="F117" s="31"/>
-      <c r="G117" s="30"/>
+      <c r="G117" s="43"/>
       <c r="H117" s="31"/>
-      <c r="I117" s="32"/>
+      <c r="I117" s="44"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
@@ -4682,16 +4680,18 @@
         <v>000001110100</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E118" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="F118" s="31"/>
-      <c r="G118" s="30"/>
+      <c r="G118" s="43"/>
       <c r="H118" s="31"/>
-      <c r="I118" s="32"/>
+      <c r="I118" s="44"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
@@ -4702,18 +4702,16 @@
         <v>000001110101</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E119" s="14"/>
       <c r="F119" s="31"/>
-      <c r="G119" s="30"/>
+      <c r="G119" s="43"/>
       <c r="H119" s="31"/>
-      <c r="I119" s="32"/>
+      <c r="I119" s="44"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
@@ -4724,16 +4722,16 @@
         <v>000001110110</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="31"/>
-      <c r="G120" s="30"/>
+      <c r="G120" s="43"/>
       <c r="H120" s="31"/>
-      <c r="I120" s="32"/>
+      <c r="I120" s="44"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
@@ -4744,20 +4742,18 @@
         <v>000001110111</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F121" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="G121" s="30"/>
+        <v>41</v>
+      </c>
+      <c r="F121" s="31"/>
+      <c r="G121" s="43"/>
       <c r="H121" s="31"/>
-      <c r="I121" s="32"/>
+      <c r="I121" s="44"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
@@ -4768,18 +4764,16 @@
         <v>000001111000</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>82</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E122" s="14"/>
       <c r="F122" s="31"/>
-      <c r="G122" s="30"/>
+      <c r="G122" s="43"/>
       <c r="H122" s="31"/>
-      <c r="I122" s="32"/>
+      <c r="I122" s="44"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
@@ -4790,18 +4784,20 @@
         <v>000001111001</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F123" s="31"/>
-      <c r="G123" s="30"/>
+        <v>81</v>
+      </c>
+      <c r="F123" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="G123" s="43"/>
       <c r="H123" s="31"/>
-      <c r="I123" s="32"/>
+      <c r="I123" s="44"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
@@ -4812,16 +4808,18 @@
         <v>000001111010</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E124" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="F124" s="31"/>
-      <c r="G124" s="30"/>
+      <c r="G124" s="43"/>
       <c r="H124" s="31"/>
-      <c r="I124" s="32"/>
+      <c r="I124" s="44"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
@@ -4832,18 +4830,18 @@
         <v>000001111011</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F125" s="31"/>
-      <c r="G125" s="30"/>
+      <c r="G125" s="43"/>
       <c r="H125" s="31"/>
-      <c r="I125" s="32"/>
+      <c r="I125" s="44"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
@@ -4854,18 +4852,16 @@
         <v>000001111100</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E126" s="14" t="s">
-        <v>201</v>
-      </c>
+      <c r="E126" s="14"/>
       <c r="F126" s="31"/>
-      <c r="G126" s="30"/>
+      <c r="G126" s="43"/>
       <c r="H126" s="31"/>
-      <c r="I126" s="32"/>
+      <c r="I126" s="44"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
@@ -4876,16 +4872,18 @@
         <v>000001111101</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E127" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="F127" s="31"/>
-      <c r="G127" s="30"/>
+      <c r="G127" s="43"/>
       <c r="H127" s="31"/>
-      <c r="I127" s="32"/>
+      <c r="I127" s="44"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
@@ -4896,18 +4894,18 @@
         <v>000001111110</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="F128" s="31"/>
-      <c r="G128" s="30"/>
+      <c r="G128" s="43"/>
       <c r="H128" s="31"/>
-      <c r="I128" s="32"/>
+      <c r="I128" s="44"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
@@ -4918,16 +4916,16 @@
         <v>000001111111</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="31"/>
-      <c r="G129" s="30"/>
+      <c r="G129" s="43"/>
       <c r="H129" s="31"/>
-      <c r="I129" s="32"/>
+      <c r="I129" s="44"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
@@ -4938,80 +4936,80 @@
         <v>000010000000</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F130" s="31"/>
-      <c r="G130" s="30"/>
+      <c r="G130" s="43"/>
       <c r="H130" s="31"/>
-      <c r="I130" s="32"/>
+      <c r="I130" s="44"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" s="1" t="str">
-        <f t="shared" ref="B131:B194" si="2">TEXT(DEC2BIN(A131),"000000000000")</f>
+        <f t="shared" si="1"/>
         <v>000010000001</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E131" s="14"/>
       <c r="F131" s="31"/>
-      <c r="G131" s="30"/>
+      <c r="G131" s="43"/>
       <c r="H131" s="31"/>
-      <c r="I131" s="32"/>
+      <c r="I131" s="44"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>000010000010</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E132" s="14"/>
+        <v>89</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="F132" s="31"/>
-      <c r="G132" s="30"/>
+      <c r="G132" s="43"/>
       <c r="H132" s="31"/>
-      <c r="I132" s="32"/>
+      <c r="I132" s="44"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B133:B196" si="2">TEXT(DEC2BIN(A133),"000000000000")</f>
         <v>000010000011</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>92</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E133" s="14"/>
       <c r="F133" s="31"/>
-      <c r="G133" s="30"/>
+      <c r="G133" s="43"/>
       <c r="H133" s="31"/>
-      <c r="I133" s="32"/>
+      <c r="I133" s="44"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
@@ -5022,16 +5020,16 @@
         <v>000010000100</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E134" s="14"/>
       <c r="F134" s="31"/>
-      <c r="G134" s="30"/>
+      <c r="G134" s="43"/>
       <c r="H134" s="31"/>
-      <c r="I134" s="32"/>
+      <c r="I134" s="44"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
@@ -5042,16 +5040,18 @@
         <v>000010000101</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E135" s="14"/>
+        <v>91</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="F135" s="31"/>
-      <c r="G135" s="30"/>
+      <c r="G135" s="43"/>
       <c r="H135" s="31"/>
-      <c r="I135" s="32"/>
+      <c r="I135" s="44"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
@@ -5062,16 +5062,16 @@
         <v>000010000110</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E136" s="14"/>
       <c r="F136" s="31"/>
-      <c r="G136" s="30"/>
+      <c r="G136" s="43"/>
       <c r="H136" s="31"/>
-      <c r="I136" s="32"/>
+      <c r="I136" s="44"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
@@ -5082,16 +5082,16 @@
         <v>000010000111</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="E137" s="14"/>
       <c r="F137" s="31"/>
-      <c r="G137" s="30"/>
+      <c r="G137" s="43"/>
       <c r="H137" s="31"/>
-      <c r="I137" s="32"/>
+      <c r="I137" s="44"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
@@ -5102,20 +5102,18 @@
         <v>000010001000</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>97</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E138" s="14"/>
       <c r="F138" s="31"/>
-      <c r="G138" s="30"/>
+      <c r="G138" s="43"/>
       <c r="H138" s="31"/>
-      <c r="I138" s="32"/>
-    </row>
-    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I138" s="44"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5124,18 +5122,16 @@
         <v>000010001001</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E139" s="14"/>
       <c r="F139" s="31"/>
-      <c r="G139" s="30"/>
+      <c r="G139" s="43"/>
       <c r="H139" s="31"/>
-      <c r="I139" s="32"/>
+      <c r="I139" s="44"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
@@ -5146,18 +5142,20 @@
         <v>000010001010</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E140" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="F140" s="31"/>
-      <c r="G140" s="30"/>
+      <c r="G140" s="43"/>
       <c r="H140" s="31"/>
-      <c r="I140" s="32"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I140" s="44"/>
+    </row>
+    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5166,18 +5164,18 @@
         <v>000010001011</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="F141" s="31"/>
-      <c r="G141" s="30"/>
+      <c r="G141" s="43"/>
       <c r="H141" s="31"/>
-      <c r="I141" s="32"/>
+      <c r="I141" s="44"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
@@ -5188,16 +5186,16 @@
         <v>000010001100</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>117</v>
+        <v>277</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="E142" s="14"/>
       <c r="F142" s="31"/>
-      <c r="G142" s="30"/>
+      <c r="G142" s="43"/>
       <c r="H142" s="31"/>
-      <c r="I142" s="32"/>
+      <c r="I142" s="44"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
@@ -5208,18 +5206,18 @@
         <v>000010001101</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>122</v>
+        <v>278</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F143" s="31"/>
-      <c r="G143" s="30"/>
+      <c r="G143" s="43"/>
       <c r="H143" s="31"/>
-      <c r="I143" s="32"/>
+      <c r="I143" s="44"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
@@ -5230,16 +5228,16 @@
         <v>000010001110</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>101</v>
+        <v>279</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="E144" s="14"/>
       <c r="F144" s="31"/>
-      <c r="G144" s="30"/>
+      <c r="G144" s="43"/>
       <c r="H144" s="31"/>
-      <c r="I144" s="32"/>
+      <c r="I144" s="44"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
@@ -5250,18 +5248,18 @@
         <v>000010001111</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>102</v>
+        <v>280</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="F145" s="31"/>
-      <c r="G145" s="30"/>
+      <c r="G145" s="43"/>
       <c r="H145" s="31"/>
-      <c r="I145" s="32"/>
+      <c r="I145" s="44"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
@@ -5272,18 +5270,16 @@
         <v>000010010000</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E146" s="14"/>
       <c r="F146" s="31"/>
-      <c r="G146" s="30"/>
+      <c r="G146" s="43"/>
       <c r="H146" s="31"/>
-      <c r="I146" s="32"/>
+      <c r="I146" s="44"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
@@ -5294,18 +5290,18 @@
         <v>000010010001</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F147" s="31"/>
-      <c r="G147" s="30"/>
+      <c r="G147" s="43"/>
       <c r="H147" s="31"/>
-      <c r="I147" s="32"/>
+      <c r="I147" s="44"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
@@ -5316,16 +5312,18 @@
         <v>000010010010</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" s="14"/>
+        <v>182</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="F148" s="31"/>
-      <c r="G148" s="30"/>
+      <c r="G148" s="43"/>
       <c r="H148" s="31"/>
-      <c r="I148" s="32"/>
+      <c r="I148" s="44"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
@@ -5336,16 +5334,18 @@
         <v>000010010011</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E149" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="F149" s="31"/>
-      <c r="G149" s="30"/>
+      <c r="G149" s="43"/>
       <c r="H149" s="31"/>
-      <c r="I149" s="32"/>
+      <c r="I149" s="44"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
@@ -5356,16 +5356,16 @@
         <v>000010010100</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="E150" s="14"/>
       <c r="F150" s="31"/>
-      <c r="G150" s="30"/>
+      <c r="G150" s="43"/>
       <c r="H150" s="31"/>
-      <c r="I150" s="32"/>
+      <c r="I150" s="44"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
@@ -5376,18 +5376,16 @@
         <v>000010010101</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E151" s="14" t="s">
-        <v>204</v>
-      </c>
+      <c r="E151" s="14"/>
       <c r="F151" s="31"/>
-      <c r="G151" s="30"/>
+      <c r="G151" s="43"/>
       <c r="H151" s="31"/>
-      <c r="I151" s="32"/>
+      <c r="I151" s="44"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
@@ -5398,16 +5396,16 @@
         <v>000010010110</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E152" s="14"/>
       <c r="F152" s="31"/>
-      <c r="G152" s="30"/>
+      <c r="G152" s="43"/>
       <c r="H152" s="31"/>
-      <c r="I152" s="32"/>
+      <c r="I152" s="44"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
@@ -5418,18 +5416,18 @@
         <v>000010010111</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E153" s="47" t="s">
-        <v>184</v>
+        <v>277</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="F153" s="31"/>
-      <c r="G153" s="30"/>
+      <c r="G153" s="43"/>
       <c r="H153" s="31"/>
-      <c r="I153" s="32"/>
+      <c r="I153" s="44"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
@@ -5440,16 +5438,16 @@
         <v>000010011000</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E154" s="37"/>
+        <v>195</v>
+      </c>
+      <c r="E154" s="14"/>
       <c r="F154" s="31"/>
-      <c r="G154" s="30"/>
+      <c r="G154" s="43"/>
       <c r="H154" s="31"/>
-      <c r="I154" s="32"/>
+      <c r="I154" s="44"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
@@ -5460,16 +5458,18 @@
         <v>000010011001</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E155" s="37"/>
+        <v>286</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E155" s="39" t="s">
+        <v>184</v>
+      </c>
       <c r="F155" s="31"/>
-      <c r="G155" s="30"/>
+      <c r="G155" s="43"/>
       <c r="H155" s="31"/>
-      <c r="I155" s="32"/>
+      <c r="I155" s="44"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
@@ -5480,16 +5480,16 @@
         <v>000010011010</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E156" s="37"/>
+        <v>186</v>
+      </c>
+      <c r="E156" s="35"/>
       <c r="F156" s="31"/>
-      <c r="G156" s="30"/>
+      <c r="G156" s="43"/>
       <c r="H156" s="31"/>
-      <c r="I156" s="32"/>
+      <c r="I156" s="44"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
@@ -5500,16 +5500,16 @@
         <v>000010011011</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E157" s="37"/>
+        <v>187</v>
+      </c>
+      <c r="E157" s="35"/>
       <c r="F157" s="31"/>
-      <c r="G157" s="30"/>
+      <c r="G157" s="43"/>
       <c r="H157" s="31"/>
-      <c r="I157" s="32"/>
+      <c r="I157" s="44"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
@@ -5520,16 +5520,16 @@
         <v>000010011100</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E158" s="37"/>
+        <v>188</v>
+      </c>
+      <c r="E158" s="35"/>
       <c r="F158" s="31"/>
-      <c r="G158" s="30"/>
+      <c r="G158" s="43"/>
       <c r="H158" s="31"/>
-      <c r="I158" s="32"/>
+      <c r="I158" s="44"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
@@ -5540,16 +5540,16 @@
         <v>000010011101</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E159" s="37"/>
+        <v>101</v>
+      </c>
+      <c r="E159" s="35"/>
       <c r="F159" s="31"/>
-      <c r="G159" s="30"/>
+      <c r="G159" s="43"/>
       <c r="H159" s="31"/>
-      <c r="I159" s="32"/>
+      <c r="I159" s="44"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
@@ -5560,16 +5560,16 @@
         <v>000010011110</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E160" s="38"/>
+        <v>290</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E160" s="35"/>
       <c r="F160" s="31"/>
-      <c r="G160" s="30"/>
+      <c r="G160" s="43"/>
       <c r="H160" s="31"/>
-      <c r="I160" s="32"/>
+      <c r="I160" s="44"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
@@ -5580,18 +5580,16 @@
         <v>000010011111</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E161" s="47" t="s">
-        <v>107</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E161" s="35"/>
       <c r="F161" s="31"/>
-      <c r="G161" s="30"/>
+      <c r="G161" s="43"/>
       <c r="H161" s="31"/>
-      <c r="I161" s="32"/>
+      <c r="I161" s="44"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
@@ -5602,16 +5600,16 @@
         <v>000010100000</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E162" s="37"/>
+        <v>291</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E162" s="36"/>
       <c r="F162" s="31"/>
-      <c r="G162" s="30"/>
+      <c r="G162" s="43"/>
       <c r="H162" s="31"/>
-      <c r="I162" s="32"/>
+      <c r="I162" s="44"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
@@ -5622,16 +5620,18 @@
         <v>000010100001</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E163" s="38"/>
+        <v>292</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E163" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="F163" s="31"/>
-      <c r="G163" s="30"/>
+      <c r="G163" s="43"/>
       <c r="H163" s="31"/>
-      <c r="I163" s="32"/>
+      <c r="I163" s="44"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
@@ -5642,18 +5642,16 @@
         <v>000010100010</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E164" s="47" t="s">
-        <v>108</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E164" s="35"/>
       <c r="F164" s="31"/>
-      <c r="G164" s="30"/>
+      <c r="G164" s="43"/>
       <c r="H164" s="31"/>
-      <c r="I164" s="32"/>
+      <c r="I164" s="44"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
@@ -5664,16 +5662,16 @@
         <v>000010100011</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E165" s="37"/>
+        <v>291</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E165" s="36"/>
       <c r="F165" s="31"/>
-      <c r="G165" s="30"/>
+      <c r="G165" s="43"/>
       <c r="H165" s="31"/>
-      <c r="I165" s="32"/>
+      <c r="I165" s="44"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
@@ -5684,16 +5682,18 @@
         <v>000010100100</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E166" s="38"/>
+        <v>294</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E166" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="F166" s="31"/>
-      <c r="G166" s="30"/>
+      <c r="G166" s="43"/>
       <c r="H166" s="31"/>
-      <c r="I166" s="32"/>
+      <c r="I166" s="44"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
@@ -5704,16 +5704,16 @@
         <v>000010100101</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E167" s="14"/>
+        <v>190</v>
+      </c>
+      <c r="E167" s="35"/>
       <c r="F167" s="31"/>
-      <c r="G167" s="30"/>
+      <c r="G167" s="43"/>
       <c r="H167" s="31"/>
-      <c r="I167" s="32"/>
+      <c r="I167" s="44"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
@@ -5724,18 +5724,16 @@
         <v>000010100110</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E168" s="14" t="s">
-        <v>109</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E168" s="36"/>
       <c r="F168" s="31"/>
-      <c r="G168" s="30"/>
+      <c r="G168" s="43"/>
       <c r="H168" s="31"/>
-      <c r="I168" s="32"/>
+      <c r="I168" s="44"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
@@ -5746,18 +5744,16 @@
         <v>000010100111</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E169" s="14" t="s">
-        <v>111</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E169" s="14"/>
       <c r="F169" s="31"/>
-      <c r="G169" s="30"/>
+      <c r="G169" s="43"/>
       <c r="H169" s="31"/>
-      <c r="I169" s="32"/>
+      <c r="I169" s="44"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
@@ -5768,18 +5764,18 @@
         <v>000010101000</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F170" s="31"/>
-      <c r="G170" s="30"/>
+      <c r="G170" s="43"/>
       <c r="H170" s="31"/>
-      <c r="I170" s="32"/>
+      <c r="I170" s="44"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
@@ -5790,16 +5786,18 @@
         <v>000010101001</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E171" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="F171" s="31"/>
-      <c r="G171" s="30"/>
+      <c r="G171" s="43"/>
       <c r="H171" s="31"/>
-      <c r="I171" s="32"/>
+      <c r="I171" s="44"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
@@ -5810,16 +5808,18 @@
         <v>000010101010</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E172" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="F172" s="31"/>
-      <c r="G172" s="30"/>
+      <c r="G172" s="43"/>
       <c r="H172" s="31"/>
-      <c r="I172" s="32"/>
+      <c r="I172" s="44"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
@@ -5830,18 +5830,16 @@
         <v>000010101011</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>92</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E173" s="14"/>
       <c r="F173" s="31"/>
-      <c r="G173" s="30"/>
+      <c r="G173" s="43"/>
       <c r="H173" s="31"/>
-      <c r="I173" s="32"/>
+      <c r="I173" s="44"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
@@ -5852,16 +5850,16 @@
         <v>000010101100</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E174" s="14"/>
       <c r="F174" s="31"/>
-      <c r="G174" s="30"/>
+      <c r="G174" s="43"/>
       <c r="H174" s="31"/>
-      <c r="I174" s="32"/>
+      <c r="I174" s="44"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
@@ -5872,16 +5870,18 @@
         <v>000010101101</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E175" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="F175" s="31"/>
-      <c r="G175" s="30"/>
+      <c r="G175" s="43"/>
       <c r="H175" s="31"/>
-      <c r="I175" s="32"/>
+      <c r="I175" s="44"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
@@ -5892,16 +5892,16 @@
         <v>000010101110</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="E176" s="14"/>
       <c r="F176" s="31"/>
-      <c r="G176" s="30"/>
+      <c r="G176" s="43"/>
       <c r="H176" s="31"/>
-      <c r="I176" s="32"/>
+      <c r="I176" s="44"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
@@ -5912,16 +5912,16 @@
         <v>000010101111</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="E177" s="14"/>
       <c r="F177" s="31"/>
-      <c r="G177" s="30"/>
+      <c r="G177" s="43"/>
       <c r="H177" s="31"/>
-      <c r="I177" s="32"/>
+      <c r="I177" s="44"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
@@ -5932,16 +5932,16 @@
         <v>000010110000</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="E178" s="14"/>
       <c r="F178" s="31"/>
-      <c r="G178" s="30"/>
+      <c r="G178" s="43"/>
       <c r="H178" s="31"/>
-      <c r="I178" s="32"/>
+      <c r="I178" s="44"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
@@ -5952,18 +5952,16 @@
         <v>000010110001</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E179" s="14" t="s">
-        <v>97</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E179" s="14"/>
       <c r="F179" s="31"/>
-      <c r="G179" s="30"/>
+      <c r="G179" s="43"/>
       <c r="H179" s="31"/>
-      <c r="I179" s="32"/>
+      <c r="I179" s="44"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
@@ -5974,16 +5972,16 @@
         <v>000010110010</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E180" s="14"/>
       <c r="F180" s="31"/>
-      <c r="G180" s="30"/>
+      <c r="G180" s="43"/>
       <c r="H180" s="31"/>
-      <c r="I180" s="32"/>
+      <c r="I180" s="44"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
@@ -5994,16 +5992,18 @@
         <v>000010110011</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E181" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="F181" s="31"/>
-      <c r="G181" s="30"/>
+      <c r="G181" s="43"/>
       <c r="H181" s="31"/>
-      <c r="I181" s="32"/>
+      <c r="I181" s="44"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
@@ -6014,18 +6014,16 @@
         <v>000010110100</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E182" s="14" t="s">
-        <v>205</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E182" s="14"/>
       <c r="F182" s="31"/>
-      <c r="G182" s="30"/>
+      <c r="G182" s="43"/>
       <c r="H182" s="31"/>
-      <c r="I182" s="32"/>
+      <c r="I182" s="44"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
@@ -6036,16 +6034,16 @@
         <v>000010110101</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D183" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E183" s="14"/>
       <c r="F183" s="31"/>
-      <c r="G183" s="30"/>
+      <c r="G183" s="43"/>
       <c r="H183" s="31"/>
-      <c r="I183" s="32"/>
+      <c r="I183" s="44"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
@@ -6056,18 +6054,18 @@
         <v>000010110110</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>122</v>
+        <v>278</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E184" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F184" s="31"/>
-      <c r="G184" s="30"/>
+      <c r="G184" s="43"/>
       <c r="H184" s="31"/>
-      <c r="I184" s="32"/>
+      <c r="I184" s="44"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
@@ -6078,16 +6076,16 @@
         <v>000010110111</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>118</v>
+        <v>279</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="E185" s="14"/>
       <c r="F185" s="31"/>
-      <c r="G185" s="30"/>
+      <c r="G185" s="43"/>
       <c r="H185" s="31"/>
-      <c r="I185" s="32"/>
+      <c r="I185" s="44"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
@@ -6098,16 +6096,18 @@
         <v>000010111000</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E186" s="14"/>
+        <v>280</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="F186" s="31"/>
-      <c r="G186" s="30"/>
+      <c r="G186" s="43"/>
       <c r="H186" s="31"/>
-      <c r="I186" s="32"/>
+      <c r="I186" s="44"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
@@ -6118,18 +6118,16 @@
         <v>000010111001</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E187" s="14" t="s">
-        <v>120</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E187" s="14"/>
       <c r="F187" s="31"/>
-      <c r="G187" s="30"/>
+      <c r="G187" s="43"/>
       <c r="H187" s="31"/>
-      <c r="I187" s="32"/>
+      <c r="I187" s="44"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
@@ -6140,16 +6138,16 @@
         <v>000010111010</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="E188" s="14"/>
       <c r="F188" s="31"/>
-      <c r="G188" s="30"/>
+      <c r="G188" s="43"/>
       <c r="H188" s="31"/>
-      <c r="I188" s="32"/>
+      <c r="I188" s="44"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
@@ -6160,18 +6158,18 @@
         <v>000010111011</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E189" s="14" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="F189" s="31"/>
-      <c r="G189" s="30"/>
+      <c r="G189" s="43"/>
       <c r="H189" s="31"/>
-      <c r="I189" s="32"/>
+      <c r="I189" s="44"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
@@ -6182,18 +6180,16 @@
         <v>000010111100</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E190" s="14" t="s">
-        <v>123</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E190" s="14"/>
       <c r="F190" s="31"/>
-      <c r="G190" s="30"/>
+      <c r="G190" s="43"/>
       <c r="H190" s="31"/>
-      <c r="I190" s="32"/>
+      <c r="I190" s="44"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
@@ -6204,16 +6200,18 @@
         <v>000010111101</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E191" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="E191" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="F191" s="31"/>
-      <c r="G191" s="30"/>
+      <c r="G191" s="43"/>
       <c r="H191" s="31"/>
-      <c r="I191" s="32"/>
+      <c r="I191" s="44"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
@@ -6224,18 +6222,18 @@
         <v>000010111110</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E192" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F192" s="31"/>
-      <c r="G192" s="30"/>
+      <c r="G192" s="43"/>
       <c r="H192" s="31"/>
-      <c r="I192" s="32"/>
+      <c r="I192" s="44"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
@@ -6246,16 +6244,16 @@
         <v>000010111111</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="E193" s="14"/>
       <c r="F193" s="31"/>
-      <c r="G193" s="30"/>
+      <c r="G193" s="43"/>
       <c r="H193" s="31"/>
-      <c r="I193" s="32"/>
+      <c r="I193" s="44"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
@@ -6266,80 +6264,80 @@
         <v>000011000000</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E194" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F194" s="31"/>
-      <c r="G194" s="30"/>
+      <c r="G194" s="43"/>
       <c r="H194" s="31"/>
-      <c r="I194" s="32"/>
+      <c r="I194" s="44"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" s="1" t="str">
-        <f t="shared" ref="B195:B258" si="3">TEXT(DEC2BIN(A195),"000000000000")</f>
+        <f t="shared" si="2"/>
         <v>000011000001</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="E195" s="14"/>
       <c r="F195" s="31"/>
-      <c r="G195" s="30"/>
+      <c r="G195" s="43"/>
       <c r="H195" s="31"/>
-      <c r="I195" s="32"/>
+      <c r="I195" s="44"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>000011000010</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E196" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="E196" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="F196" s="31"/>
-      <c r="G196" s="30"/>
+      <c r="G196" s="43"/>
       <c r="H196" s="31"/>
-      <c r="I196" s="32"/>
+      <c r="I196" s="44"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B197:B260" si="3">TEXT(DEC2BIN(A197),"000000000000")</f>
         <v>000011000011</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E197" s="14" t="s">
-        <v>127</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E197" s="14"/>
       <c r="F197" s="31"/>
-      <c r="G197" s="30"/>
+      <c r="G197" s="43"/>
       <c r="H197" s="31"/>
-      <c r="I197" s="32"/>
+      <c r="I197" s="44"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
@@ -6350,18 +6348,16 @@
         <v>000011000100</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E198" s="14" t="s">
-        <v>149</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E198" s="14"/>
       <c r="F198" s="31"/>
-      <c r="G198" s="30"/>
+      <c r="G198" s="43"/>
       <c r="H198" s="31"/>
-      <c r="I198" s="32"/>
+      <c r="I198" s="44"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
@@ -6372,16 +6368,18 @@
         <v>000011000101</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E199" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="E199" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="F199" s="31"/>
-      <c r="G199" s="30"/>
+      <c r="G199" s="43"/>
       <c r="H199" s="31"/>
-      <c r="I199" s="32"/>
+      <c r="I199" s="44"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
@@ -6392,16 +6390,18 @@
         <v>000011000110</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D200" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E200" s="14"/>
+        <v>302</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="F200" s="31"/>
-      <c r="G200" s="30"/>
+      <c r="G200" s="43"/>
       <c r="H200" s="31"/>
-      <c r="I200" s="32"/>
+      <c r="I200" s="44"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
@@ -6412,18 +6412,16 @@
         <v>000011000111</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="D201" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E201" s="14" t="s">
-        <v>208</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="14"/>
       <c r="F201" s="31"/>
-      <c r="G201" s="30"/>
+      <c r="G201" s="43"/>
       <c r="H201" s="31"/>
-      <c r="I201" s="32"/>
+      <c r="I201" s="44"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
@@ -6434,16 +6432,16 @@
         <v>000011001000</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D202" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D202" s="15" t="s">
         <v>117</v>
       </c>
       <c r="E202" s="14"/>
       <c r="F202" s="31"/>
-      <c r="G202" s="30"/>
+      <c r="G202" s="43"/>
       <c r="H202" s="31"/>
-      <c r="I202" s="32"/>
+      <c r="I202" s="44"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
@@ -6454,18 +6452,18 @@
         <v>000011001001</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>136</v>
+        <v>303</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="E203" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F203" s="31"/>
-      <c r="G203" s="30"/>
+      <c r="G203" s="43"/>
       <c r="H203" s="31"/>
-      <c r="I203" s="32"/>
+      <c r="I203" s="44"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
@@ -6476,16 +6474,16 @@
         <v>000011001010</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>106</v>
+        <v>279</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E204" s="14"/>
       <c r="F204" s="31"/>
-      <c r="G204" s="30"/>
+      <c r="G204" s="43"/>
       <c r="H204" s="31"/>
-      <c r="I204" s="32"/>
+      <c r="I204" s="44"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
@@ -6496,16 +6494,18 @@
         <v>000011001011</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E205" s="14"/>
+        <v>304</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E205" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="F205" s="31"/>
-      <c r="G205" s="30"/>
+      <c r="G205" s="43"/>
       <c r="H205" s="31"/>
-      <c r="I205" s="32"/>
+      <c r="I205" s="44"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
@@ -6516,18 +6516,16 @@
         <v>000011001100</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E206" s="14" t="s">
-        <v>129</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E206" s="14"/>
       <c r="F206" s="31"/>
-      <c r="G206" s="30"/>
+      <c r="G206" s="43"/>
       <c r="H206" s="31"/>
-      <c r="I206" s="32"/>
+      <c r="I206" s="44"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
@@ -6538,16 +6536,16 @@
         <v>000011001101</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="E207" s="14"/>
       <c r="F207" s="31"/>
-      <c r="G207" s="30"/>
+      <c r="G207" s="43"/>
       <c r="H207" s="31"/>
-      <c r="I207" s="32"/>
+      <c r="I207" s="44"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
@@ -6558,16 +6556,18 @@
         <v>000011001110</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E208" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="F208" s="31"/>
-      <c r="G208" s="30"/>
+      <c r="G208" s="43"/>
       <c r="H208" s="31"/>
-      <c r="I208" s="32"/>
+      <c r="I208" s="44"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
@@ -6578,18 +6578,16 @@
         <v>000011001111</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E209" s="14" t="s">
-        <v>125</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E209" s="14"/>
       <c r="F209" s="31"/>
-      <c r="G209" s="30"/>
+      <c r="G209" s="43"/>
       <c r="H209" s="31"/>
-      <c r="I209" s="32"/>
+      <c r="I209" s="44"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
@@ -6600,18 +6598,16 @@
         <v>000011010000</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E210" s="14" t="s">
-        <v>135</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E210" s="14"/>
       <c r="F210" s="31"/>
-      <c r="G210" s="30"/>
+      <c r="G210" s="43"/>
       <c r="H210" s="31"/>
-      <c r="I210" s="32"/>
+      <c r="I210" s="44"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
@@ -6622,18 +6618,18 @@
         <v>000011010001</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="E211" s="14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F211" s="31"/>
-      <c r="G211" s="30"/>
+      <c r="G211" s="43"/>
       <c r="H211" s="31"/>
-      <c r="I211" s="32"/>
+      <c r="I211" s="44"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
@@ -6644,16 +6640,18 @@
         <v>000011010010</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E212" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="E212" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="F212" s="31"/>
-      <c r="G212" s="30"/>
+      <c r="G212" s="43"/>
       <c r="H212" s="31"/>
-      <c r="I212" s="32"/>
+      <c r="I212" s="44"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
@@ -6664,18 +6662,18 @@
         <v>000011010011</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="E213" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F213" s="31"/>
-      <c r="G213" s="30"/>
+      <c r="G213" s="43"/>
       <c r="H213" s="31"/>
-      <c r="I213" s="32"/>
+      <c r="I213" s="44"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
@@ -6686,16 +6684,16 @@
         <v>000011010100</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E214" s="14"/>
       <c r="F214" s="31"/>
-      <c r="G214" s="30"/>
+      <c r="G214" s="43"/>
       <c r="H214" s="31"/>
-      <c r="I214" s="32"/>
+      <c r="I214" s="44"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
@@ -6706,16 +6704,18 @@
         <v>000011010101</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E215" s="14"/>
+        <v>139</v>
+      </c>
+      <c r="E215" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="F215" s="31"/>
-      <c r="G215" s="30"/>
+      <c r="G215" s="43"/>
       <c r="H215" s="31"/>
-      <c r="I215" s="32"/>
+      <c r="I215" s="44"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
@@ -6726,18 +6726,16 @@
         <v>000011010110</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E216" s="14" t="s">
-        <v>210</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E216" s="14"/>
       <c r="F216" s="31"/>
-      <c r="G216" s="30"/>
+      <c r="G216" s="43"/>
       <c r="H216" s="31"/>
-      <c r="I216" s="32"/>
+      <c r="I216" s="44"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
@@ -6748,16 +6746,16 @@
         <v>000011010111</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="E217" s="14"/>
       <c r="F217" s="31"/>
-      <c r="G217" s="30"/>
+      <c r="G217" s="43"/>
       <c r="H217" s="31"/>
-      <c r="I217" s="32"/>
+      <c r="I217" s="44"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
@@ -6768,18 +6766,18 @@
         <v>000011011000</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="E218" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F218" s="31"/>
-      <c r="G218" s="30"/>
+      <c r="G218" s="43"/>
       <c r="H218" s="31"/>
-      <c r="I218" s="32"/>
+      <c r="I218" s="44"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
@@ -6790,16 +6788,16 @@
         <v>000011011001</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E219" s="14"/>
       <c r="F219" s="31"/>
-      <c r="G219" s="30"/>
+      <c r="G219" s="43"/>
       <c r="H219" s="31"/>
-      <c r="I219" s="32"/>
+      <c r="I219" s="44"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
@@ -6810,16 +6808,18 @@
         <v>000011011010</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E220" s="14"/>
+        <v>122</v>
+      </c>
+      <c r="E220" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="F220" s="31"/>
-      <c r="G220" s="30"/>
+      <c r="G220" s="43"/>
       <c r="H220" s="31"/>
-      <c r="I220" s="32"/>
+      <c r="I220" s="44"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
@@ -6830,18 +6830,16 @@
         <v>000011011011</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E221" s="14" t="s">
-        <v>143</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E221" s="14"/>
       <c r="F221" s="31"/>
-      <c r="G221" s="30"/>
+      <c r="G221" s="43"/>
       <c r="H221" s="31"/>
-      <c r="I221" s="32"/>
+      <c r="I221" s="44"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
@@ -6852,16 +6850,16 @@
         <v>000011011100</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="E222" s="14"/>
       <c r="F222" s="31"/>
-      <c r="G222" s="30"/>
+      <c r="G222" s="43"/>
       <c r="H222" s="31"/>
-      <c r="I222" s="32"/>
+      <c r="I222" s="44"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
@@ -6872,18 +6870,18 @@
         <v>000011011101</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E223" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F223" s="31"/>
-      <c r="G223" s="30"/>
+      <c r="G223" s="43"/>
       <c r="H223" s="31"/>
-      <c r="I223" s="32"/>
+      <c r="I223" s="44"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
@@ -6894,16 +6892,16 @@
         <v>000011011110</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E224" s="14"/>
       <c r="F224" s="31"/>
-      <c r="G224" s="30"/>
+      <c r="G224" s="43"/>
       <c r="H224" s="31"/>
-      <c r="I224" s="32"/>
+      <c r="I224" s="44"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
@@ -6914,16 +6912,18 @@
         <v>000011011111</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E225" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="E225" s="14" t="s">
+        <v>145</v>
+      </c>
       <c r="F225" s="31"/>
-      <c r="G225" s="30"/>
+      <c r="G225" s="43"/>
       <c r="H225" s="31"/>
-      <c r="I225" s="32"/>
+      <c r="I225" s="44"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
@@ -6934,18 +6934,16 @@
         <v>000011100000</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E226" s="14" t="s">
-        <v>125</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E226" s="14"/>
       <c r="F226" s="31"/>
-      <c r="G226" s="30"/>
+      <c r="G226" s="43"/>
       <c r="H226" s="31"/>
-      <c r="I226" s="32"/>
+      <c r="I226" s="44"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
@@ -6956,16 +6954,16 @@
         <v>000011100001</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E227" s="14"/>
       <c r="F227" s="31"/>
-      <c r="G227" s="30"/>
+      <c r="G227" s="43"/>
       <c r="H227" s="31"/>
-      <c r="I227" s="32"/>
+      <c r="I227" s="44"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
@@ -6976,16 +6974,18 @@
         <v>000011100010</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E228" s="14"/>
+        <v>131</v>
+      </c>
+      <c r="E228" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="F228" s="31"/>
-      <c r="G228" s="30"/>
+      <c r="G228" s="43"/>
       <c r="H228" s="31"/>
-      <c r="I228" s="32"/>
+      <c r="I228" s="44"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
@@ -6996,16 +6996,16 @@
         <v>000011100011</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E229" s="14"/>
       <c r="F229" s="31"/>
-      <c r="G229" s="30"/>
+      <c r="G229" s="43"/>
       <c r="H229" s="31"/>
-      <c r="I229" s="32"/>
+      <c r="I229" s="44"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
@@ -7016,16 +7016,16 @@
         <v>000011100100</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="E230" s="14"/>
       <c r="F230" s="31"/>
-      <c r="G230" s="30"/>
+      <c r="G230" s="43"/>
       <c r="H230" s="31"/>
-      <c r="I230" s="32"/>
+      <c r="I230" s="44"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
@@ -7036,18 +7036,16 @@
         <v>000011100101</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E231" s="14" t="s">
-        <v>147</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E231" s="14"/>
       <c r="F231" s="31"/>
-      <c r="G231" s="30"/>
+      <c r="G231" s="43"/>
       <c r="H231" s="31"/>
-      <c r="I231" s="32"/>
+      <c r="I231" s="44"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
@@ -7058,18 +7056,16 @@
         <v>000011100110</v>
       </c>
       <c r="C232" s="21" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E232" s="14" t="s">
-        <v>150</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E232" s="14"/>
       <c r="F232" s="31"/>
-      <c r="G232" s="30"/>
+      <c r="G232" s="43"/>
       <c r="H232" s="31"/>
-      <c r="I232" s="32"/>
+      <c r="I232" s="44"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
@@ -7080,16 +7076,18 @@
         <v>000011100111</v>
       </c>
       <c r="C233" s="21" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E233" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="E233" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="F233" s="31"/>
-      <c r="G233" s="30"/>
+      <c r="G233" s="43"/>
       <c r="H233" s="31"/>
-      <c r="I233" s="32"/>
+      <c r="I233" s="44"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
@@ -7100,18 +7098,18 @@
         <v>000011101000</v>
       </c>
       <c r="C234" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E234" s="14" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="F234" s="31"/>
-      <c r="G234" s="30"/>
+      <c r="G234" s="43"/>
       <c r="H234" s="31"/>
-      <c r="I234" s="32"/>
+      <c r="I234" s="44"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
@@ -7122,16 +7120,16 @@
         <v>000011101001</v>
       </c>
       <c r="C235" s="21" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="E235" s="14"/>
       <c r="F235" s="31"/>
-      <c r="G235" s="30"/>
+      <c r="G235" s="43"/>
       <c r="H235" s="31"/>
-      <c r="I235" s="32"/>
+      <c r="I235" s="44"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
@@ -7142,18 +7140,18 @@
         <v>000011101010</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="E236" s="14" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="F236" s="31"/>
-      <c r="G236" s="30"/>
+      <c r="G236" s="43"/>
       <c r="H236" s="31"/>
-      <c r="I236" s="32"/>
+      <c r="I236" s="44"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
@@ -7164,18 +7162,16 @@
         <v>000011101011</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E237" s="14" t="s">
-        <v>137</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E237" s="14"/>
       <c r="F237" s="31"/>
-      <c r="G237" s="30"/>
+      <c r="G237" s="43"/>
       <c r="H237" s="31"/>
-      <c r="I237" s="32"/>
+      <c r="I237" s="44"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
@@ -7186,16 +7182,18 @@
         <v>000011101100</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E238" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="E238" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="F238" s="31"/>
-      <c r="G238" s="30"/>
+      <c r="G238" s="43"/>
       <c r="H238" s="31"/>
-      <c r="I238" s="32"/>
+      <c r="I238" s="44"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
@@ -7206,16 +7204,18 @@
         <v>000011101101</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E239" s="14"/>
+        <v>86</v>
+      </c>
+      <c r="E239" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F239" s="31"/>
-      <c r="G239" s="30"/>
+      <c r="G239" s="43"/>
       <c r="H239" s="31"/>
-      <c r="I239" s="32"/>
+      <c r="I239" s="44"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
@@ -7226,18 +7226,16 @@
         <v>000011101110</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E240" s="14" t="s">
-        <v>125</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E240" s="14"/>
       <c r="F240" s="31"/>
-      <c r="G240" s="30"/>
+      <c r="G240" s="43"/>
       <c r="H240" s="31"/>
-      <c r="I240" s="32"/>
+      <c r="I240" s="44"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
@@ -7248,18 +7246,16 @@
         <v>000011101111</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E241" s="14" t="s">
-        <v>135</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E241" s="14"/>
       <c r="F241" s="31"/>
-      <c r="G241" s="30"/>
+      <c r="G241" s="43"/>
       <c r="H241" s="31"/>
-      <c r="I241" s="32"/>
+      <c r="I241" s="44"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
@@ -7270,18 +7266,18 @@
         <v>000011110000</v>
       </c>
       <c r="C242" s="21" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="E242" s="14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F242" s="31"/>
-      <c r="G242" s="30"/>
+      <c r="G242" s="43"/>
       <c r="H242" s="31"/>
-      <c r="I242" s="32"/>
+      <c r="I242" s="44"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
@@ -7292,18 +7288,18 @@
         <v>000011110001</v>
       </c>
       <c r="C243" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E243" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F243" s="14"/>
-      <c r="G243" s="30"/>
+        <v>263</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F243" s="31"/>
+      <c r="G243" s="43"/>
       <c r="H243" s="31"/>
-      <c r="I243" s="32"/>
+      <c r="I243" s="44"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
@@ -7314,16 +7310,18 @@
         <v>000011110010</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E244" s="37"/>
-      <c r="F244" s="14"/>
-      <c r="G244" s="30"/>
+        <v>86</v>
+      </c>
+      <c r="E244" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F244" s="31"/>
+      <c r="G244" s="43"/>
       <c r="H244" s="31"/>
-      <c r="I244" s="32"/>
+      <c r="I244" s="44"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
@@ -7334,16 +7332,18 @@
         <v>000011110011</v>
       </c>
       <c r="C245" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D245" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E245" s="37"/>
+        <v>230</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E245" s="34" t="s">
+        <v>134</v>
+      </c>
       <c r="F245" s="14"/>
-      <c r="G245" s="30"/>
+      <c r="G245" s="43"/>
       <c r="H245" s="31"/>
-      <c r="I245" s="32"/>
+      <c r="I245" s="44"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
@@ -7354,16 +7354,16 @@
         <v>000011110100</v>
       </c>
       <c r="C246" s="21" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E246" s="37"/>
+        <v>13</v>
+      </c>
+      <c r="E246" s="35"/>
       <c r="F246" s="14"/>
-      <c r="G246" s="30"/>
+      <c r="G246" s="43"/>
       <c r="H246" s="31"/>
-      <c r="I246" s="32"/>
+      <c r="I246" s="44"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
@@ -7374,16 +7374,16 @@
         <v>000011110101</v>
       </c>
       <c r="C247" s="21" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E247" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="E247" s="35"/>
       <c r="F247" s="14"/>
-      <c r="G247" s="30"/>
+      <c r="G247" s="43"/>
       <c r="H247" s="31"/>
-      <c r="I247" s="32"/>
+      <c r="I247" s="44"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
@@ -7394,16 +7394,16 @@
         <v>000011110110</v>
       </c>
       <c r="C248" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E248" s="37"/>
+        <v>18</v>
+      </c>
+      <c r="E248" s="35"/>
       <c r="F248" s="14"/>
-      <c r="G248" s="30"/>
+      <c r="G248" s="43"/>
       <c r="H248" s="31"/>
-      <c r="I248" s="32"/>
+      <c r="I248" s="44"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
@@ -7414,16 +7414,16 @@
         <v>000011110111</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E249" s="37"/>
+        <v>15</v>
+      </c>
+      <c r="E249" s="35"/>
       <c r="F249" s="14"/>
-      <c r="G249" s="30"/>
+      <c r="G249" s="43"/>
       <c r="H249" s="31"/>
-      <c r="I249" s="32"/>
+      <c r="I249" s="44"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
@@ -7434,18 +7434,18 @@
         <v>000011111000</v>
       </c>
       <c r="C250" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D250" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E250" s="38"/>
+        <v>227</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" s="35"/>
       <c r="F250" s="14"/>
-      <c r="G250" s="30"/>
+      <c r="G250" s="43"/>
       <c r="H250" s="31"/>
-      <c r="I250" s="32"/>
-    </row>
-    <row r="251" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I250" s="44"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7454,16 +7454,16 @@
         <v>000011111001</v>
       </c>
       <c r="C251" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E251" s="23"/>
-      <c r="F251" s="16"/>
-      <c r="G251" s="33"/>
-      <c r="H251" s="34"/>
-      <c r="I251" s="35"/>
+        <v>249</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E251" s="35"/>
+      <c r="F251" s="14"/>
+      <c r="G251" s="43"/>
+      <c r="H251" s="31"/>
+      <c r="I251" s="44"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
@@ -7474,22 +7474,18 @@
         <v>000011111010</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D252" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E252" s="36" t="s">
-        <v>25</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="36"/>
       <c r="F252" s="14"/>
-      <c r="G252" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="H252" s="28"/>
-      <c r="I252" s="29"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G252" s="43"/>
+      <c r="H252" s="31"/>
+      <c r="I252" s="44"/>
+    </row>
+    <row r="253" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7498,16 +7494,16 @@
         <v>000011111011</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E253" s="37"/>
-      <c r="F253" s="14"/>
-      <c r="G253" s="30"/>
-      <c r="H253" s="31"/>
-      <c r="I253" s="32"/>
+        <v>250</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E253" s="23"/>
+      <c r="F253" s="16"/>
+      <c r="G253" s="45"/>
+      <c r="H253" s="38"/>
+      <c r="I253" s="46"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
@@ -7518,16 +7514,20 @@
         <v>000011111100</v>
       </c>
       <c r="C254" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E254" s="37"/>
+        <v>227</v>
+      </c>
+      <c r="D254" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E254" s="54" t="s">
+        <v>25</v>
+      </c>
       <c r="F254" s="14"/>
-      <c r="G254" s="30"/>
-      <c r="H254" s="31"/>
-      <c r="I254" s="32"/>
+      <c r="G254" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="H254" s="41"/>
+      <c r="I254" s="42"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
@@ -7538,16 +7538,16 @@
         <v>000011111101</v>
       </c>
       <c r="C255" s="21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E255" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="E255" s="35"/>
       <c r="F255" s="14"/>
-      <c r="G255" s="30"/>
+      <c r="G255" s="43"/>
       <c r="H255" s="31"/>
-      <c r="I255" s="32"/>
+      <c r="I255" s="44"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
@@ -7558,16 +7558,16 @@
         <v>000011111110</v>
       </c>
       <c r="C256" s="21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E256" s="37"/>
+        <v>11</v>
+      </c>
+      <c r="E256" s="35"/>
       <c r="F256" s="14"/>
-      <c r="G256" s="30"/>
+      <c r="G256" s="43"/>
       <c r="H256" s="31"/>
-      <c r="I256" s="32"/>
+      <c r="I256" s="44"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
@@ -7578,16 +7578,16 @@
         <v>000011111111</v>
       </c>
       <c r="C257" s="21" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E257" s="37"/>
+        <v>12</v>
+      </c>
+      <c r="E257" s="35"/>
       <c r="F257" s="14"/>
-      <c r="G257" s="30"/>
+      <c r="G257" s="43"/>
       <c r="H257" s="31"/>
-      <c r="I257" s="32"/>
+      <c r="I257" s="44"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
@@ -7598,76 +7598,76 @@
         <v>000100000000</v>
       </c>
       <c r="C258" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D258" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E258" s="37"/>
+        <v>231</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" s="35"/>
       <c r="F258" s="14"/>
-      <c r="G258" s="30"/>
+      <c r="G258" s="43"/>
       <c r="H258" s="31"/>
-      <c r="I258" s="32"/>
+      <c r="I258" s="44"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" s="1" t="str">
-        <f t="shared" ref="B259:B304" si="4">TEXT(DEC2BIN(A259),"000000000000")</f>
+        <f t="shared" si="3"/>
         <v>000100000001</v>
       </c>
       <c r="C259" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="D259" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E259" s="38"/>
+        <v>232</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E259" s="35"/>
       <c r="F259" s="14"/>
-      <c r="G259" s="30"/>
+      <c r="G259" s="43"/>
       <c r="H259" s="31"/>
-      <c r="I259" s="32"/>
+      <c r="I259" s="44"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>000100000010</v>
       </c>
       <c r="C260" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E260" s="14"/>
+        <v>233</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E260" s="35"/>
       <c r="F260" s="14"/>
-      <c r="G260" s="30"/>
+      <c r="G260" s="43"/>
       <c r="H260" s="31"/>
-      <c r="I260" s="32"/>
+      <c r="I260" s="44"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B261:B306" si="4">TEXT(DEC2BIN(A261),"000000000000")</f>
         <v>000100000011</v>
       </c>
       <c r="C261" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E261" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E261" s="36"/>
       <c r="F261" s="14"/>
-      <c r="G261" s="30"/>
+      <c r="G261" s="43"/>
       <c r="H261" s="31"/>
-      <c r="I261" s="32"/>
+      <c r="I261" s="44"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
@@ -7678,16 +7678,16 @@
         <v>000100000100</v>
       </c>
       <c r="C262" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="D262" s="18" t="s">
-        <v>155</v>
+        <v>242</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E262" s="14"/>
       <c r="F262" s="14"/>
-      <c r="G262" s="30"/>
+      <c r="G262" s="43"/>
       <c r="H262" s="31"/>
-      <c r="I262" s="32"/>
+      <c r="I262" s="44"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
@@ -7698,16 +7698,16 @@
         <v>000100000101</v>
       </c>
       <c r="C263" s="21" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E263" s="14"/>
       <c r="F263" s="14"/>
-      <c r="G263" s="30"/>
+      <c r="G263" s="43"/>
       <c r="H263" s="31"/>
-      <c r="I263" s="32"/>
+      <c r="I263" s="44"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
@@ -7718,16 +7718,16 @@
         <v>000100000110</v>
       </c>
       <c r="C264" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>161</v>
+        <v>316</v>
+      </c>
+      <c r="D264" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="E264" s="14"/>
       <c r="F264" s="14"/>
-      <c r="G264" s="30"/>
+      <c r="G264" s="43"/>
       <c r="H264" s="31"/>
-      <c r="I264" s="32"/>
+      <c r="I264" s="44"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
@@ -7738,16 +7738,16 @@
         <v>000100000111</v>
       </c>
       <c r="C265" s="21" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="E265" s="14"/>
       <c r="F265" s="14"/>
-      <c r="G265" s="30"/>
+      <c r="G265" s="43"/>
       <c r="H265" s="31"/>
-      <c r="I265" s="32"/>
+      <c r="I265" s="44"/>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
@@ -7758,16 +7758,16 @@
         <v>000100001000</v>
       </c>
       <c r="C266" s="21" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E266" s="14"/>
       <c r="F266" s="14"/>
-      <c r="G266" s="30"/>
+      <c r="G266" s="43"/>
       <c r="H266" s="31"/>
-      <c r="I266" s="32"/>
+      <c r="I266" s="44"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
@@ -7778,16 +7778,16 @@
         <v>000100001001</v>
       </c>
       <c r="C267" s="21" t="s">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="E267" s="14"/>
       <c r="F267" s="14"/>
-      <c r="G267" s="30"/>
+      <c r="G267" s="43"/>
       <c r="H267" s="31"/>
-      <c r="I267" s="32"/>
+      <c r="I267" s="44"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
@@ -7798,16 +7798,16 @@
         <v>000100001010</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E268" s="14"/>
       <c r="F268" s="14"/>
-      <c r="G268" s="30"/>
+      <c r="G268" s="43"/>
       <c r="H268" s="31"/>
-      <c r="I268" s="32"/>
+      <c r="I268" s="44"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
@@ -7818,16 +7818,16 @@
         <v>000100001011</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="E269" s="14"/>
       <c r="F269" s="14"/>
-      <c r="G269" s="30"/>
+      <c r="G269" s="43"/>
       <c r="H269" s="31"/>
-      <c r="I269" s="32"/>
+      <c r="I269" s="44"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
@@ -7838,16 +7838,16 @@
         <v>000100001100</v>
       </c>
       <c r="C270" s="21" t="s">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="E270" s="14"/>
       <c r="F270" s="14"/>
-      <c r="G270" s="30"/>
+      <c r="G270" s="43"/>
       <c r="H270" s="31"/>
-      <c r="I270" s="32"/>
+      <c r="I270" s="44"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
@@ -7858,16 +7858,16 @@
         <v>000100001101</v>
       </c>
       <c r="C271" s="21" t="s">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="E271" s="14"/>
       <c r="F271" s="14"/>
-      <c r="G271" s="30"/>
+      <c r="G271" s="43"/>
       <c r="H271" s="31"/>
-      <c r="I271" s="32"/>
+      <c r="I271" s="44"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
@@ -7878,16 +7878,16 @@
         <v>000100001110</v>
       </c>
       <c r="C272" s="21" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="E272" s="14"/>
       <c r="F272" s="14"/>
-      <c r="G272" s="30"/>
+      <c r="G272" s="43"/>
       <c r="H272" s="31"/>
-      <c r="I272" s="32"/>
+      <c r="I272" s="44"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
@@ -7898,16 +7898,16 @@
         <v>000100001111</v>
       </c>
       <c r="C273" s="21" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="E273" s="14"/>
       <c r="F273" s="14"/>
-      <c r="G273" s="30"/>
+      <c r="G273" s="43"/>
       <c r="H273" s="31"/>
-      <c r="I273" s="32"/>
+      <c r="I273" s="44"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
@@ -7918,16 +7918,16 @@
         <v>000100010000</v>
       </c>
       <c r="C274" s="21" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="E274" s="14"/>
       <c r="F274" s="14"/>
-      <c r="G274" s="30"/>
+      <c r="G274" s="43"/>
       <c r="H274" s="31"/>
-      <c r="I274" s="32"/>
+      <c r="I274" s="44"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
@@ -7938,16 +7938,16 @@
         <v>000100010001</v>
       </c>
       <c r="C275" s="21" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E275" s="14"/>
       <c r="F275" s="14"/>
-      <c r="G275" s="30"/>
+      <c r="G275" s="43"/>
       <c r="H275" s="31"/>
-      <c r="I275" s="32"/>
+      <c r="I275" s="44"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
@@ -7958,16 +7958,16 @@
         <v>000100010010</v>
       </c>
       <c r="C276" s="21" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="E276" s="14"/>
       <c r="F276" s="14"/>
-      <c r="G276" s="30"/>
+      <c r="G276" s="43"/>
       <c r="H276" s="31"/>
-      <c r="I276" s="32"/>
+      <c r="I276" s="44"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
@@ -7978,16 +7978,16 @@
         <v>000100010011</v>
       </c>
       <c r="C277" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E277" s="14"/>
       <c r="F277" s="14"/>
-      <c r="G277" s="30"/>
+      <c r="G277" s="43"/>
       <c r="H277" s="31"/>
-      <c r="I277" s="32"/>
+      <c r="I277" s="44"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
@@ -7998,16 +7998,16 @@
         <v>000100010100</v>
       </c>
       <c r="C278" s="21" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="E278" s="14"/>
       <c r="F278" s="14"/>
-      <c r="G278" s="30"/>
+      <c r="G278" s="43"/>
       <c r="H278" s="31"/>
-      <c r="I278" s="32"/>
+      <c r="I278" s="44"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
@@ -8018,16 +8018,16 @@
         <v>000100010101</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="E279" s="14"/>
       <c r="F279" s="14"/>
-      <c r="G279" s="30"/>
+      <c r="G279" s="43"/>
       <c r="H279" s="31"/>
-      <c r="I279" s="32"/>
+      <c r="I279" s="44"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
@@ -8038,16 +8038,16 @@
         <v>000100010110</v>
       </c>
       <c r="C280" s="21" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="E280" s="14"/>
       <c r="F280" s="14"/>
-      <c r="G280" s="30"/>
+      <c r="G280" s="43"/>
       <c r="H280" s="31"/>
-      <c r="I280" s="32"/>
+      <c r="I280" s="44"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
@@ -8058,16 +8058,16 @@
         <v>000100010111</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>333</v>
+        <v>243</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="E281" s="14"/>
       <c r="F281" s="14"/>
-      <c r="G281" s="30"/>
+      <c r="G281" s="43"/>
       <c r="H281" s="31"/>
-      <c r="I281" s="32"/>
+      <c r="I281" s="44"/>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
@@ -8078,16 +8078,16 @@
         <v>000100011000</v>
       </c>
       <c r="C282" s="21" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="E282" s="14"/>
       <c r="F282" s="14"/>
-      <c r="G282" s="30"/>
+      <c r="G282" s="43"/>
       <c r="H282" s="31"/>
-      <c r="I282" s="32"/>
+      <c r="I282" s="44"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
@@ -8098,16 +8098,16 @@
         <v>000100011001</v>
       </c>
       <c r="C283" s="21" t="s">
-        <v>254</v>
+        <v>328</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="E283" s="14"/>
       <c r="F283" s="14"/>
-      <c r="G283" s="30"/>
+      <c r="G283" s="43"/>
       <c r="H283" s="31"/>
-      <c r="I283" s="32"/>
+      <c r="I283" s="44"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
@@ -8118,16 +8118,16 @@
         <v>000100011010</v>
       </c>
       <c r="C284" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E284" s="14"/>
       <c r="F284" s="14"/>
-      <c r="G284" s="30"/>
+      <c r="G284" s="43"/>
       <c r="H284" s="31"/>
-      <c r="I284" s="32"/>
+      <c r="I284" s="44"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
@@ -8138,16 +8138,16 @@
         <v>000100011011</v>
       </c>
       <c r="C285" s="21" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="E285" s="14"/>
       <c r="F285" s="14"/>
-      <c r="G285" s="30"/>
+      <c r="G285" s="43"/>
       <c r="H285" s="31"/>
-      <c r="I285" s="32"/>
+      <c r="I285" s="44"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
@@ -8158,16 +8158,16 @@
         <v>000100011100</v>
       </c>
       <c r="C286" s="21" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E286" s="14"/>
       <c r="F286" s="14"/>
-      <c r="G286" s="30"/>
+      <c r="G286" s="43"/>
       <c r="H286" s="31"/>
-      <c r="I286" s="32"/>
+      <c r="I286" s="44"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
@@ -8178,16 +8178,16 @@
         <v>000100011101</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="E287" s="14"/>
       <c r="F287" s="14"/>
-      <c r="G287" s="30"/>
+      <c r="G287" s="43"/>
       <c r="H287" s="31"/>
-      <c r="I287" s="32"/>
+      <c r="I287" s="44"/>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
@@ -8198,16 +8198,16 @@
         <v>000100011110</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E288" s="14"/>
       <c r="F288" s="14"/>
-      <c r="G288" s="30"/>
+      <c r="G288" s="43"/>
       <c r="H288" s="31"/>
-      <c r="I288" s="32"/>
+      <c r="I288" s="44"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
@@ -8218,18 +8218,16 @@
         <v>000100011111</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D289" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E289" s="39" t="s">
-        <v>134</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E289" s="14"/>
       <c r="F289" s="14"/>
-      <c r="G289" s="30"/>
+      <c r="G289" s="43"/>
       <c r="H289" s="31"/>
-      <c r="I289" s="32"/>
+      <c r="I289" s="44"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
@@ -8240,16 +8238,16 @@
         <v>000100100000</v>
       </c>
       <c r="C290" s="21" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E290" s="37"/>
+        <v>159</v>
+      </c>
+      <c r="E290" s="14"/>
       <c r="F290" s="14"/>
-      <c r="G290" s="30"/>
+      <c r="G290" s="43"/>
       <c r="H290" s="31"/>
-      <c r="I290" s="32"/>
+      <c r="I290" s="44"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
@@ -8260,16 +8258,18 @@
         <v>000100100001</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D291" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E291" s="37"/>
+        <v>230</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" s="34" t="s">
+        <v>134</v>
+      </c>
       <c r="F291" s="14"/>
-      <c r="G291" s="30"/>
+      <c r="G291" s="43"/>
       <c r="H291" s="31"/>
-      <c r="I291" s="32"/>
+      <c r="I291" s="44"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
@@ -8280,16 +8280,16 @@
         <v>000100100010</v>
       </c>
       <c r="C292" s="21" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E292" s="37"/>
+        <v>13</v>
+      </c>
+      <c r="E292" s="35"/>
       <c r="F292" s="14"/>
-      <c r="G292" s="30"/>
+      <c r="G292" s="43"/>
       <c r="H292" s="31"/>
-      <c r="I292" s="32"/>
+      <c r="I292" s="44"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
@@ -8300,16 +8300,16 @@
         <v>000100100011</v>
       </c>
       <c r="C293" s="21" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E293" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="E293" s="35"/>
       <c r="F293" s="14"/>
-      <c r="G293" s="30"/>
+      <c r="G293" s="43"/>
       <c r="H293" s="31"/>
-      <c r="I293" s="32"/>
+      <c r="I293" s="44"/>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
@@ -8320,16 +8320,16 @@
         <v>000100100100</v>
       </c>
       <c r="C294" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E294" s="37"/>
+        <v>18</v>
+      </c>
+      <c r="E294" s="35"/>
       <c r="F294" s="14"/>
-      <c r="G294" s="30"/>
+      <c r="G294" s="43"/>
       <c r="H294" s="31"/>
-      <c r="I294" s="32"/>
+      <c r="I294" s="44"/>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
@@ -8340,16 +8340,16 @@
         <v>000100100101</v>
       </c>
       <c r="C295" s="21" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E295" s="37"/>
+        <v>15</v>
+      </c>
+      <c r="E295" s="35"/>
       <c r="F295" s="14"/>
-      <c r="G295" s="30"/>
+      <c r="G295" s="43"/>
       <c r="H295" s="31"/>
-      <c r="I295" s="32"/>
+      <c r="I295" s="44"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
@@ -8360,18 +8360,18 @@
         <v>000100100110</v>
       </c>
       <c r="C296" s="21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E296" s="37"/>
+        <v>9</v>
+      </c>
+      <c r="E296" s="35"/>
       <c r="F296" s="14"/>
-      <c r="G296" s="30"/>
+      <c r="G296" s="43"/>
       <c r="H296" s="31"/>
-      <c r="I296" s="32"/>
-    </row>
-    <row r="297" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I296" s="44"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -8380,16 +8380,16 @@
         <v>000100100111</v>
       </c>
       <c r="C297" s="21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E297" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="E297" s="35"/>
       <c r="F297" s="14"/>
-      <c r="G297" s="33"/>
-      <c r="H297" s="34"/>
-      <c r="I297" s="35"/>
+      <c r="G297" s="43"/>
+      <c r="H297" s="31"/>
+      <c r="I297" s="44"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
@@ -8400,22 +8400,18 @@
         <v>000100101000</v>
       </c>
       <c r="C298" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="D298" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E298" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F298" s="17"/>
-      <c r="G298" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="H298" s="28"/>
-      <c r="I298" s="29"/>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E298" s="35"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="43"/>
+      <c r="H298" s="31"/>
+      <c r="I298" s="44"/>
+    </row>
+    <row r="299" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -8424,16 +8420,16 @@
         <v>000100101001</v>
       </c>
       <c r="C299" s="21" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E299" s="31"/>
+        <v>196</v>
+      </c>
+      <c r="E299" s="22"/>
       <c r="F299" s="14"/>
-      <c r="G299" s="30"/>
-      <c r="H299" s="31"/>
-      <c r="I299" s="32"/>
+      <c r="G299" s="45"/>
+      <c r="H299" s="38"/>
+      <c r="I299" s="46"/>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
@@ -8444,18 +8440,20 @@
         <v>000100101010</v>
       </c>
       <c r="C300" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D300" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E300" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="F300" s="14"/>
-      <c r="G300" s="30"/>
-      <c r="H300" s="31"/>
-      <c r="I300" s="32"/>
+        <v>333</v>
+      </c>
+      <c r="D300" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E300" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F300" s="17"/>
+      <c r="G300" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="H300" s="41"/>
+      <c r="I300" s="42"/>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
@@ -8466,16 +8464,16 @@
         <v>000100101011</v>
       </c>
       <c r="C301" s="21" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E301" s="31"/>
       <c r="F301" s="14"/>
-      <c r="G301" s="30"/>
+      <c r="G301" s="43"/>
       <c r="H301" s="31"/>
-      <c r="I301" s="32"/>
+      <c r="I301" s="44"/>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
@@ -8486,18 +8484,18 @@
         <v>000100101100</v>
       </c>
       <c r="C302" s="21" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E302" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F302" s="14"/>
-      <c r="G302" s="30"/>
+      <c r="G302" s="43"/>
       <c r="H302" s="31"/>
-      <c r="I302" s="32"/>
+      <c r="I302" s="44"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
@@ -8508,18 +8506,18 @@
         <v>000100101101</v>
       </c>
       <c r="C303" s="21" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E303" s="31"/>
       <c r="F303" s="14"/>
-      <c r="G303" s="30"/>
+      <c r="G303" s="43"/>
       <c r="H303" s="31"/>
-      <c r="I303" s="32"/>
-    </row>
-    <row r="304" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I303" s="44"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -8528,42 +8526,84 @@
         <v>000100101110</v>
       </c>
       <c r="C304" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F304" s="14"/>
+      <c r="G304" s="43"/>
+      <c r="H304" s="31"/>
+      <c r="I304" s="44"/>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>000100101111</v>
+      </c>
+      <c r="C305" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E305" s="31"/>
+      <c r="F305" s="14"/>
+      <c r="G305" s="43"/>
+      <c r="H305" s="31"/>
+      <c r="I305" s="44"/>
+    </row>
+    <row r="306" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>000100110000</v>
+      </c>
+      <c r="C306" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D304" s="5" t="s">
+      <c r="D306" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E304" s="16"/>
-      <c r="F304" s="16"/>
-      <c r="G304" s="33"/>
-      <c r="H304" s="34"/>
-      <c r="I304" s="35"/>
+      <c r="E306" s="16"/>
+      <c r="F306" s="16"/>
+      <c r="G306" s="45"/>
+      <c r="H306" s="38"/>
+      <c r="I306" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G254:I299"/>
+    <mergeCell ref="E304:E305"/>
+    <mergeCell ref="G300:I306"/>
+    <mergeCell ref="E254:E261"/>
+    <mergeCell ref="E291:E298"/>
+    <mergeCell ref="E300:E301"/>
+    <mergeCell ref="E302:E303"/>
     <mergeCell ref="E2:I7"/>
     <mergeCell ref="E8:I33"/>
-    <mergeCell ref="E98:E105"/>
-    <mergeCell ref="F106:F120"/>
-    <mergeCell ref="E243:E250"/>
-    <mergeCell ref="F121:F242"/>
+    <mergeCell ref="E100:E107"/>
+    <mergeCell ref="F108:F122"/>
+    <mergeCell ref="E245:E252"/>
+    <mergeCell ref="F123:F244"/>
     <mergeCell ref="E34:E41"/>
     <mergeCell ref="E57:E64"/>
     <mergeCell ref="E66:E73"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="E153:E160"/>
-    <mergeCell ref="E161:E163"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="G98:I251"/>
-    <mergeCell ref="G66:I97"/>
+    <mergeCell ref="E91:E98"/>
+    <mergeCell ref="E155:E162"/>
+    <mergeCell ref="E163:E165"/>
+    <mergeCell ref="E166:E168"/>
+    <mergeCell ref="G100:I253"/>
+    <mergeCell ref="G66:I99"/>
     <mergeCell ref="G34:I65"/>
-    <mergeCell ref="G252:I297"/>
-    <mergeCell ref="E302:E303"/>
-    <mergeCell ref="G298:I304"/>
-    <mergeCell ref="E252:E259"/>
-    <mergeCell ref="E289:E296"/>
-    <mergeCell ref="E298:E299"/>
-    <mergeCell ref="E300:E301"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9675,18 +9715,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9709,14 +9749,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73C6083F-62C9-4687-BAA3-6A17041F4F31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03387035-E2F6-47E4-9536-7240C8460469}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -9731,4 +9763,12 @@
     <ds:schemaRef ds:uri="241ebaf9-2dfb-46f5-962c-7f299c6da124"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73C6083F-62C9-4687-BAA3-6A17041F4F31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>